--- a/TestCases_Wafilife_Web_Automation.xlsx
+++ b/TestCases_Wafilife_Web_Automation.xlsx
@@ -8,15 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSE\SQA\Web Automation Projects\Wafilife\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F76D719-292D-4998-84EB-F4375578BB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC0CAE2-4FC7-49E3-BCAD-53796D960E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" r:id="rId1"/>
     <sheet name="Test Summary Report" sheetId="2" r:id="rId2"/>
-    <sheet name="Bug Report" sheetId="3" r:id="rId3"/>
-    <sheet name="Test Metrics" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Remember_Me_checkbox_error">#REF!</definedName>
@@ -64,9 +62,6 @@
   </si>
   <si>
     <t>TC End Date</t>
-  </si>
-  <si>
-    <t>15/1/2025</t>
   </si>
   <si>
     <t>TC Execution End Date</t>
@@ -361,9 +356,6 @@
     <t>Reviewed By</t>
   </si>
   <si>
-    <t>Md. Abdur Rahman Faysal</t>
-  </si>
-  <si>
     <t>Out of Scope</t>
   </si>
   <si>
@@ -418,12 +410,18 @@
   <si>
     <t>USER STORY</t>
   </si>
+  <si>
+    <t>Md. Abdur Rahman Foysal</t>
+  </si>
+  <si>
+    <t>27/7/2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="65">
+  <fonts count="55">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -719,66 +717,6 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFEFEFEF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFF3F3F3"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FFF3F3F3"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFEFEFEF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -954,7 +892,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1612,40 +1550,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="362">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2468,89 +2377,6 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="59" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="7" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2574,22 +2400,66 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="27" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="53" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="27" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="21" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2598,38 +2468,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3418,9 +3263,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC869"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3443,10 +3288,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="29.25" customHeight="1">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="295" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="329"/>
+      <c r="B1" s="296"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3489,29 +3334,29 @@
       <c r="AC1" s="10"/>
     </row>
     <row r="2" spans="1:29" ht="32.25" customHeight="1">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="295" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="329"/>
+      <c r="B2" s="296"/>
       <c r="C2" s="11"/>
       <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>10</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="5"/>
       <c r="J2" s="6"/>
       <c r="K2" s="7"/>
       <c r="L2" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M2" s="15">
         <f>COUNTIF(L8:L25, "Passed")</f>
@@ -3535,29 +3380,29 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" ht="33" customHeight="1">
-      <c r="A3" s="328" t="s">
+      <c r="A3" s="295" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="296"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="329"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
       <c r="L3" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="15">
         <f>COUNTIF(L8:L368, "Failed")</f>
@@ -3581,29 +3426,29 @@
       <c r="AC3" s="10"/>
     </row>
     <row r="4" spans="1:29" ht="34.5" customHeight="1">
-      <c r="A4" s="328" t="s">
+      <c r="A4" s="295" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="296"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="329"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
       <c r="L4" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" s="15">
         <f>COUNTIF(L7:L368, "Not Executed")</f>
@@ -3627,23 +3472,23 @@
       <c r="AC4" s="10"/>
     </row>
     <row r="5" spans="1:29" ht="31.5" customHeight="1">
-      <c r="A5" s="330" t="s">
+      <c r="A5" s="297" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="296"/>
+      <c r="C5" s="298" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="329"/>
-      <c r="C5" s="331" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="332"/>
-      <c r="E5" s="332"/>
-      <c r="F5" s="332"/>
-      <c r="G5" s="329"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="296"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
       <c r="J5" s="6"/>
       <c r="K5" s="7"/>
       <c r="L5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="19">
         <f>COUNTIF(L7:L368, "Out of Scope")</f>
@@ -3679,7 +3524,7 @@
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
       <c r="L6" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M6" s="26">
         <f>SUM(M2:M5)</f>
@@ -3704,43 +3549,43 @@
     </row>
     <row r="7" spans="1:29" ht="33" customHeight="1">
       <c r="A7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="G7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="H7" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="I7" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="J7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="K7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="L7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="M7" s="33" t="s">
         <v>38</v>
-      </c>
-      <c r="M7" s="33" t="s">
-        <v>39</v>
       </c>
       <c r="N7" s="34"/>
       <c r="O7" s="34"/>
@@ -3764,31 +3609,31 @@
         <v>1</v>
       </c>
       <c r="B8" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="D8" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="38" t="s">
+      <c r="F8" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="G8" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="H8" s="35" t="s">
         <v>44</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>45</v>
       </c>
       <c r="I8" s="39"/>
       <c r="J8" s="40"/>
       <c r="K8" s="41"/>
       <c r="L8" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M8" s="43"/>
       <c r="N8" s="44"/>
@@ -3843,30 +3688,30 @@
       <c r="A10" s="56">
         <v>2</v>
       </c>
-      <c r="B10" s="325" t="s">
+      <c r="B10" s="292" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="300" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="333" t="s">
+      <c r="E10" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="F10" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="38" t="s">
-        <v>50</v>
-      </c>
       <c r="G10" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="40"/>
       <c r="K10" s="59"/>
       <c r="L10" s="60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M10" s="61"/>
       <c r="N10" s="62"/>
@@ -3890,26 +3735,26 @@
       <c r="A11" s="56">
         <v>3</v>
       </c>
-      <c r="B11" s="326"/>
+      <c r="B11" s="293"/>
       <c r="C11" s="63"/>
-      <c r="D11" s="315"/>
+      <c r="D11" s="301"/>
       <c r="E11" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="38" t="s">
-        <v>53</v>
-      </c>
       <c r="G11" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="64"/>
       <c r="J11" s="65"/>
       <c r="K11" s="66"/>
       <c r="L11" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M11" s="68"/>
       <c r="N11" s="69"/>
@@ -3933,28 +3778,28 @@
       <c r="A12" s="56">
         <v>4</v>
       </c>
-      <c r="B12" s="327"/>
+      <c r="B12" s="294"/>
       <c r="C12" s="63"/>
       <c r="D12" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="F12" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="72" t="s">
-        <v>56</v>
-      </c>
       <c r="G12" s="72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="64"/>
       <c r="J12" s="65"/>
       <c r="K12" s="66"/>
       <c r="L12" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M12" s="68"/>
       <c r="N12" s="69"/>
@@ -4009,30 +3854,30 @@
       <c r="A14" s="56">
         <v>5</v>
       </c>
-      <c r="B14" s="325" t="s">
-        <v>57</v>
+      <c r="B14" s="292" t="s">
+        <v>56</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="F14" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="38" t="s">
-        <v>60</v>
-      </c>
       <c r="G14" s="72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" s="64"/>
       <c r="J14" s="65"/>
       <c r="K14" s="66"/>
       <c r="L14" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M14" s="68"/>
       <c r="N14" s="69"/>
@@ -4056,28 +3901,28 @@
       <c r="A15" s="56">
         <v>6</v>
       </c>
-      <c r="B15" s="326"/>
+      <c r="B15" s="293"/>
       <c r="C15" s="83"/>
       <c r="D15" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="F15" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="85" t="s">
-        <v>63</v>
-      </c>
       <c r="G15" s="72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I15" s="86"/>
       <c r="J15" s="87"/>
       <c r="K15" s="88"/>
       <c r="L15" s="89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M15" s="90"/>
       <c r="N15" s="91"/>
@@ -4101,28 +3946,28 @@
       <c r="A16" s="56">
         <v>7</v>
       </c>
-      <c r="B16" s="326"/>
+      <c r="B16" s="293"/>
       <c r="C16" s="93"/>
-      <c r="D16" s="323" t="s">
+      <c r="D16" s="290" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="94" t="s">
+      <c r="F16" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>66</v>
-      </c>
       <c r="G16" s="72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H16" s="95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="64"/>
       <c r="J16" s="96"/>
       <c r="K16" s="97"/>
       <c r="L16" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M16" s="68"/>
       <c r="N16" s="69"/>
@@ -4146,26 +3991,26 @@
       <c r="A17" s="56">
         <v>8</v>
       </c>
-      <c r="B17" s="327"/>
+      <c r="B17" s="294"/>
       <c r="C17" s="98"/>
-      <c r="D17" s="324"/>
+      <c r="D17" s="291"/>
       <c r="E17" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="100" t="s">
+      <c r="G17" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="101" t="s">
-        <v>69</v>
-      </c>
       <c r="H17" s="102" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="103"/>
       <c r="J17" s="104"/>
       <c r="K17" s="105"/>
       <c r="L17" s="106" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M17" s="107"/>
       <c r="N17" s="108"/>
@@ -4221,29 +4066,29 @@
         <v>9</v>
       </c>
       <c r="B19" s="120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="121" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="F19" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="38" t="s">
-        <v>73</v>
-      </c>
       <c r="G19" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19" s="64"/>
       <c r="J19" s="65"/>
       <c r="K19" s="95"/>
       <c r="L19" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M19" s="124"/>
       <c r="N19" s="69"/>
@@ -4298,30 +4143,30 @@
       <c r="A21" s="56">
         <v>10</v>
       </c>
-      <c r="B21" s="325" t="s">
-        <v>74</v>
+      <c r="B21" s="292" t="s">
+        <v>73</v>
       </c>
       <c r="C21" s="57"/>
       <c r="D21" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="122" t="s">
+      <c r="F21" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="38" t="s">
-        <v>77</v>
-      </c>
       <c r="G21" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H21" s="123" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I21" s="64"/>
       <c r="J21" s="65"/>
       <c r="K21" s="95"/>
       <c r="L21" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M21" s="124"/>
       <c r="N21" s="69"/>
@@ -4345,28 +4190,28 @@
       <c r="A22" s="56">
         <v>11</v>
       </c>
-      <c r="B22" s="326"/>
+      <c r="B22" s="293"/>
       <c r="C22" s="57"/>
-      <c r="D22" s="323" t="s">
+      <c r="D22" s="290" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="122" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="122" t="s">
+      <c r="F22" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="38" t="s">
-        <v>80</v>
-      </c>
       <c r="G22" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H22" s="95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I22" s="64"/>
       <c r="J22" s="65"/>
       <c r="K22" s="95"/>
       <c r="L22" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M22" s="124"/>
       <c r="N22" s="69"/>
@@ -4390,26 +4235,26 @@
       <c r="A23" s="56">
         <v>12</v>
       </c>
-      <c r="B23" s="326"/>
+      <c r="B23" s="293"/>
       <c r="C23" s="57"/>
-      <c r="D23" s="324"/>
+      <c r="D23" s="291"/>
       <c r="E23" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="38" t="s">
-        <v>82</v>
-      </c>
       <c r="G23" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H23" s="95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" s="64"/>
       <c r="J23" s="65"/>
       <c r="K23" s="95"/>
       <c r="L23" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M23" s="124"/>
       <c r="N23" s="69"/>
@@ -4433,28 +4278,28 @@
       <c r="A24" s="56">
         <v>13</v>
       </c>
-      <c r="B24" s="327"/>
+      <c r="B24" s="294"/>
       <c r="C24" s="57"/>
       <c r="D24" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="E24" s="122" t="s">
+      <c r="F24" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="38" t="s">
-        <v>85</v>
-      </c>
       <c r="G24" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="95" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I24" s="64"/>
       <c r="J24" s="65"/>
       <c r="K24" s="95"/>
       <c r="L24" s="67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M24" s="124"/>
       <c r="N24" s="69"/>
@@ -5005,7 +4850,7 @@
       <c r="A42" s="153"/>
       <c r="B42" s="154"/>
       <c r="C42" s="155"/>
-      <c r="D42" s="311"/>
+      <c r="D42" s="309"/>
       <c r="E42" s="156"/>
       <c r="F42" s="157"/>
       <c r="G42" s="157"/>
@@ -5014,7 +4859,7 @@
       <c r="J42" s="159"/>
       <c r="K42" s="157"/>
       <c r="L42" s="160"/>
-      <c r="M42" s="313"/>
+      <c r="M42" s="311"/>
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="21"/>
@@ -5036,7 +4881,7 @@
       <c r="A43" s="153"/>
       <c r="B43" s="154"/>
       <c r="C43" s="155"/>
-      <c r="D43" s="312"/>
+      <c r="D43" s="310"/>
       <c r="E43" s="156"/>
       <c r="F43" s="157"/>
       <c r="G43" s="157"/>
@@ -5045,7 +4890,7 @@
       <c r="J43" s="159"/>
       <c r="K43" s="157"/>
       <c r="L43" s="160"/>
-      <c r="M43" s="314"/>
+      <c r="M43" s="306"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
@@ -5067,7 +4912,7 @@
       <c r="A44" s="153"/>
       <c r="B44" s="154"/>
       <c r="C44" s="155"/>
-      <c r="D44" s="312"/>
+      <c r="D44" s="310"/>
       <c r="E44" s="156"/>
       <c r="F44" s="157"/>
       <c r="G44" s="157"/>
@@ -5076,7 +4921,7 @@
       <c r="J44" s="159"/>
       <c r="K44" s="157"/>
       <c r="L44" s="160"/>
-      <c r="M44" s="314"/>
+      <c r="M44" s="306"/>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
       <c r="P44" s="21"/>
@@ -5098,7 +4943,7 @@
       <c r="A45" s="153"/>
       <c r="B45" s="154"/>
       <c r="C45" s="155"/>
-      <c r="D45" s="312"/>
+      <c r="D45" s="310"/>
       <c r="E45" s="162"/>
       <c r="F45" s="157"/>
       <c r="G45" s="157"/>
@@ -5107,7 +4952,7 @@
       <c r="J45" s="159"/>
       <c r="K45" s="157"/>
       <c r="L45" s="160"/>
-      <c r="M45" s="314"/>
+      <c r="M45" s="306"/>
       <c r="N45" s="21"/>
       <c r="O45" s="21"/>
       <c r="P45" s="21"/>
@@ -5129,7 +4974,7 @@
       <c r="A46" s="153"/>
       <c r="B46" s="154"/>
       <c r="C46" s="155"/>
-      <c r="D46" s="312"/>
+      <c r="D46" s="310"/>
       <c r="E46" s="162"/>
       <c r="F46" s="157"/>
       <c r="G46" s="157"/>
@@ -5138,7 +4983,7 @@
       <c r="J46" s="159"/>
       <c r="K46" s="157"/>
       <c r="L46" s="160"/>
-      <c r="M46" s="314"/>
+      <c r="M46" s="306"/>
       <c r="N46" s="21"/>
       <c r="O46" s="21"/>
       <c r="P46" s="21"/>
@@ -5160,7 +5005,7 @@
       <c r="A47" s="153"/>
       <c r="B47" s="154"/>
       <c r="C47" s="155"/>
-      <c r="D47" s="312"/>
+      <c r="D47" s="310"/>
       <c r="E47" s="162"/>
       <c r="F47" s="157"/>
       <c r="G47" s="157"/>
@@ -5169,7 +5014,7 @@
       <c r="J47" s="159"/>
       <c r="K47" s="157"/>
       <c r="L47" s="160"/>
-      <c r="M47" s="314"/>
+      <c r="M47" s="306"/>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
@@ -5191,7 +5036,7 @@
       <c r="A48" s="153"/>
       <c r="B48" s="154"/>
       <c r="C48" s="155"/>
-      <c r="D48" s="312"/>
+      <c r="D48" s="310"/>
       <c r="E48" s="162"/>
       <c r="F48" s="157"/>
       <c r="G48" s="157"/>
@@ -5200,7 +5045,7 @@
       <c r="J48" s="159"/>
       <c r="K48" s="157"/>
       <c r="L48" s="160"/>
-      <c r="M48" s="314"/>
+      <c r="M48" s="306"/>
       <c r="N48" s="21"/>
       <c r="O48" s="21"/>
       <c r="P48" s="21"/>
@@ -5222,7 +5067,7 @@
       <c r="A49" s="153"/>
       <c r="B49" s="154"/>
       <c r="C49" s="155"/>
-      <c r="D49" s="312"/>
+      <c r="D49" s="310"/>
       <c r="E49" s="156"/>
       <c r="F49" s="157"/>
       <c r="G49" s="157"/>
@@ -5231,7 +5076,7 @@
       <c r="J49" s="159"/>
       <c r="K49" s="157"/>
       <c r="L49" s="160"/>
-      <c r="M49" s="315"/>
+      <c r="M49" s="301"/>
       <c r="N49" s="21"/>
       <c r="O49" s="21"/>
       <c r="P49" s="21"/>
@@ -5253,7 +5098,7 @@
       <c r="A50" s="153"/>
       <c r="B50" s="154"/>
       <c r="C50" s="155"/>
-      <c r="D50" s="312"/>
+      <c r="D50" s="310"/>
       <c r="E50" s="156"/>
       <c r="F50" s="157"/>
       <c r="G50" s="157"/>
@@ -5284,7 +5129,7 @@
       <c r="A51" s="153"/>
       <c r="B51" s="154"/>
       <c r="C51" s="155"/>
-      <c r="D51" s="312"/>
+      <c r="D51" s="310"/>
       <c r="E51" s="156"/>
       <c r="F51" s="157"/>
       <c r="G51" s="157"/>
@@ -5315,7 +5160,7 @@
       <c r="A52" s="153"/>
       <c r="B52" s="154"/>
       <c r="C52" s="155"/>
-      <c r="D52" s="312"/>
+      <c r="D52" s="310"/>
       <c r="E52" s="156"/>
       <c r="F52" s="157"/>
       <c r="G52" s="157"/>
@@ -5377,9 +5222,9 @@
       <c r="A54" s="168"/>
       <c r="B54" s="169"/>
       <c r="C54" s="170" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
-      <c r="D54" s="316"/>
+      <c r="D54" s="312"/>
       <c r="E54" s="156"/>
       <c r="F54" s="157"/>
       <c r="G54" s="172"/>
@@ -5410,7 +5255,7 @@
       <c r="A55" s="168"/>
       <c r="B55" s="160"/>
       <c r="C55" s="175"/>
-      <c r="D55" s="314"/>
+      <c r="D55" s="306"/>
       <c r="E55" s="156"/>
       <c r="F55" s="157"/>
       <c r="G55" s="172"/>
@@ -5441,7 +5286,7 @@
       <c r="A56" s="168"/>
       <c r="B56" s="160"/>
       <c r="C56" s="175"/>
-      <c r="D56" s="314"/>
+      <c r="D56" s="306"/>
       <c r="E56" s="156"/>
       <c r="F56" s="157"/>
       <c r="G56" s="172"/>
@@ -5472,7 +5317,7 @@
       <c r="A57" s="168"/>
       <c r="B57" s="160"/>
       <c r="C57" s="170"/>
-      <c r="D57" s="314"/>
+      <c r="D57" s="306"/>
       <c r="E57" s="156"/>
       <c r="F57" s="157"/>
       <c r="G57" s="172"/>
@@ -5503,7 +5348,7 @@
       <c r="A58" s="168"/>
       <c r="B58" s="169"/>
       <c r="C58" s="170"/>
-      <c r="D58" s="314"/>
+      <c r="D58" s="306"/>
       <c r="E58" s="156"/>
       <c r="F58" s="157"/>
       <c r="G58" s="172"/>
@@ -5534,7 +5379,7 @@
       <c r="A59" s="168"/>
       <c r="B59" s="169"/>
       <c r="C59" s="170"/>
-      <c r="D59" s="314"/>
+      <c r="D59" s="306"/>
       <c r="E59" s="156"/>
       <c r="F59" s="157"/>
       <c r="G59" s="172"/>
@@ -5565,7 +5410,7 @@
       <c r="A60" s="168"/>
       <c r="B60" s="169"/>
       <c r="C60" s="170"/>
-      <c r="D60" s="314"/>
+      <c r="D60" s="306"/>
       <c r="E60" s="156"/>
       <c r="F60" s="157"/>
       <c r="G60" s="172"/>
@@ -5596,7 +5441,7 @@
       <c r="A61" s="168"/>
       <c r="B61" s="169"/>
       <c r="C61" s="170"/>
-      <c r="D61" s="314"/>
+      <c r="D61" s="306"/>
       <c r="E61" s="156"/>
       <c r="F61" s="157"/>
       <c r="G61" s="172"/>
@@ -5627,7 +5472,7 @@
       <c r="A62" s="168"/>
       <c r="B62" s="169"/>
       <c r="C62" s="170"/>
-      <c r="D62" s="315"/>
+      <c r="D62" s="301"/>
       <c r="E62" s="156"/>
       <c r="F62" s="157"/>
       <c r="G62" s="172"/>
@@ -6561,7 +6406,7 @@
       <c r="E92" s="181"/>
       <c r="F92" s="182"/>
       <c r="G92" s="182" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H92" s="183"/>
       <c r="I92" s="182"/>
@@ -6969,8 +6814,8 @@
       <c r="H105" s="199"/>
       <c r="I105" s="198"/>
       <c r="J105" s="200"/>
-      <c r="K105" s="317"/>
-      <c r="L105" s="313"/>
+      <c r="K105" s="304"/>
+      <c r="L105" s="311"/>
       <c r="M105" s="185"/>
       <c r="N105" s="21"/>
       <c r="O105" s="21"/>
@@ -7000,8 +6845,8 @@
       <c r="H106" s="203"/>
       <c r="I106" s="202"/>
       <c r="J106" s="204"/>
-      <c r="K106" s="314"/>
-      <c r="L106" s="314"/>
+      <c r="K106" s="306"/>
+      <c r="L106" s="306"/>
       <c r="M106" s="185"/>
       <c r="N106" s="21"/>
       <c r="O106" s="21"/>
@@ -7031,8 +6876,8 @@
       <c r="H107" s="206"/>
       <c r="I107" s="205"/>
       <c r="J107" s="207"/>
-      <c r="K107" s="315"/>
-      <c r="L107" s="315"/>
+      <c r="K107" s="301"/>
+      <c r="L107" s="301"/>
       <c r="M107" s="185"/>
       <c r="N107" s="21"/>
       <c r="O107" s="21"/>
@@ -7240,9 +7085,9 @@
     <row r="114" spans="1:29" ht="15.75" customHeight="1">
       <c r="A114" s="168"/>
       <c r="B114" s="193"/>
-      <c r="C114" s="318"/>
+      <c r="C114" s="303"/>
       <c r="D114" s="176"/>
-      <c r="E114" s="319"/>
+      <c r="E114" s="308"/>
       <c r="F114" s="195"/>
       <c r="G114" s="195"/>
       <c r="H114" s="196"/>
@@ -7271,9 +7116,9 @@
     <row r="115" spans="1:29" ht="15.75" customHeight="1">
       <c r="A115" s="168"/>
       <c r="B115" s="193"/>
-      <c r="C115" s="314"/>
+      <c r="C115" s="306"/>
       <c r="D115" s="176"/>
-      <c r="E115" s="314"/>
+      <c r="E115" s="306"/>
       <c r="F115" s="195"/>
       <c r="G115" s="195"/>
       <c r="H115" s="196"/>
@@ -7302,9 +7147,9 @@
     <row r="116" spans="1:29" ht="15.75" customHeight="1">
       <c r="A116" s="168"/>
       <c r="B116" s="193"/>
-      <c r="C116" s="314"/>
+      <c r="C116" s="306"/>
       <c r="D116" s="176"/>
-      <c r="E116" s="315"/>
+      <c r="E116" s="301"/>
       <c r="F116" s="195"/>
       <c r="G116" s="195"/>
       <c r="H116" s="196"/>
@@ -7333,7 +7178,7 @@
     <row r="117" spans="1:29" ht="15.75" customHeight="1">
       <c r="A117" s="168"/>
       <c r="B117" s="193"/>
-      <c r="C117" s="314"/>
+      <c r="C117" s="306"/>
       <c r="D117" s="176"/>
       <c r="E117" s="194"/>
       <c r="F117" s="195"/>
@@ -7364,7 +7209,7 @@
     <row r="118" spans="1:29" ht="15.75" customHeight="1">
       <c r="A118" s="168"/>
       <c r="B118" s="193"/>
-      <c r="C118" s="314"/>
+      <c r="C118" s="306"/>
       <c r="D118" s="176"/>
       <c r="E118" s="194"/>
       <c r="F118" s="195"/>
@@ -7395,7 +7240,7 @@
     <row r="119" spans="1:29" ht="15.75" customHeight="1">
       <c r="A119" s="168"/>
       <c r="B119" s="193"/>
-      <c r="C119" s="314"/>
+      <c r="C119" s="306"/>
       <c r="D119" s="176"/>
       <c r="E119" s="194"/>
       <c r="F119" s="190"/>
@@ -7426,7 +7271,7 @@
     <row r="120" spans="1:29" ht="15.75" customHeight="1">
       <c r="A120" s="168"/>
       <c r="B120" s="193"/>
-      <c r="C120" s="315"/>
+      <c r="C120" s="301"/>
       <c r="D120" s="176"/>
       <c r="E120" s="194"/>
       <c r="F120" s="195"/>
@@ -7457,7 +7302,7 @@
     <row r="121" spans="1:29" ht="15.75" customHeight="1">
       <c r="A121" s="168"/>
       <c r="B121" s="193"/>
-      <c r="C121" s="318"/>
+      <c r="C121" s="303"/>
       <c r="D121" s="178"/>
       <c r="E121" s="194"/>
       <c r="F121" s="190"/>
@@ -7488,7 +7333,7 @@
     <row r="122" spans="1:29" ht="15.75" customHeight="1">
       <c r="A122" s="168"/>
       <c r="B122" s="193"/>
-      <c r="C122" s="315"/>
+      <c r="C122" s="301"/>
       <c r="D122" s="165"/>
       <c r="E122" s="194"/>
       <c r="F122" s="190"/>
@@ -7550,7 +7395,7 @@
     <row r="124" spans="1:29" ht="30" customHeight="1">
       <c r="A124" s="168"/>
       <c r="B124" s="193"/>
-      <c r="C124" s="318"/>
+      <c r="C124" s="303"/>
       <c r="D124" s="178"/>
       <c r="E124" s="194"/>
       <c r="F124" s="195"/>
@@ -7581,7 +7426,7 @@
     <row r="125" spans="1:29" ht="15.75" customHeight="1">
       <c r="A125" s="168"/>
       <c r="B125" s="193"/>
-      <c r="C125" s="314"/>
+      <c r="C125" s="306"/>
       <c r="D125" s="179"/>
       <c r="E125" s="194"/>
       <c r="F125" s="195"/>
@@ -7612,7 +7457,7 @@
     <row r="126" spans="1:29" ht="15.75" customHeight="1">
       <c r="A126" s="168"/>
       <c r="B126" s="193"/>
-      <c r="C126" s="314"/>
+      <c r="C126" s="306"/>
       <c r="D126" s="179"/>
       <c r="E126" s="194"/>
       <c r="F126" s="195"/>
@@ -7643,7 +7488,7 @@
     <row r="127" spans="1:29" ht="15.75" customHeight="1">
       <c r="A127" s="168"/>
       <c r="B127" s="193"/>
-      <c r="C127" s="314"/>
+      <c r="C127" s="306"/>
       <c r="D127" s="179"/>
       <c r="E127" s="194"/>
       <c r="F127" s="190"/>
@@ -7674,7 +7519,7 @@
     <row r="128" spans="1:29" ht="15.75" customHeight="1">
       <c r="A128" s="168"/>
       <c r="B128" s="193"/>
-      <c r="C128" s="315"/>
+      <c r="C128" s="301"/>
       <c r="D128" s="179"/>
       <c r="E128" s="212"/>
       <c r="F128" s="195"/>
@@ -8054,7 +7899,7 @@
       <c r="H140" s="191"/>
       <c r="I140" s="190"/>
       <c r="J140" s="159"/>
-      <c r="K140" s="321"/>
+      <c r="K140" s="302"/>
       <c r="L140" s="160"/>
       <c r="M140" s="215"/>
       <c r="N140" s="21"/>
@@ -8085,7 +7930,7 @@
       <c r="H141" s="191"/>
       <c r="I141" s="190"/>
       <c r="J141" s="159"/>
-      <c r="K141" s="315"/>
+      <c r="K141" s="301"/>
       <c r="L141" s="160"/>
       <c r="M141" s="215"/>
       <c r="N141" s="21"/>
@@ -8170,7 +8015,7 @@
     <row r="144" spans="1:29" ht="15.75" customHeight="1">
       <c r="A144" s="168"/>
       <c r="B144" s="193"/>
-      <c r="C144" s="318"/>
+      <c r="C144" s="303"/>
       <c r="D144" s="178"/>
       <c r="E144" s="194"/>
       <c r="F144" s="190"/>
@@ -8178,7 +8023,7 @@
       <c r="H144" s="191"/>
       <c r="I144" s="190"/>
       <c r="J144" s="159"/>
-      <c r="K144" s="317"/>
+      <c r="K144" s="304"/>
       <c r="L144" s="160"/>
       <c r="M144" s="215"/>
       <c r="N144" s="21"/>
@@ -8201,7 +8046,7 @@
     <row r="145" spans="1:29" ht="15.75" customHeight="1">
       <c r="A145" s="168"/>
       <c r="B145" s="193"/>
-      <c r="C145" s="315"/>
+      <c r="C145" s="301"/>
       <c r="D145" s="165"/>
       <c r="E145" s="194"/>
       <c r="F145" s="190"/>
@@ -8209,7 +8054,7 @@
       <c r="H145" s="191"/>
       <c r="I145" s="190"/>
       <c r="J145" s="159"/>
-      <c r="K145" s="315"/>
+      <c r="K145" s="301"/>
       <c r="L145" s="160"/>
       <c r="M145" s="215"/>
       <c r="N145" s="21"/>
@@ -8232,7 +8077,7 @@
     <row r="146" spans="1:29" ht="15.75" customHeight="1">
       <c r="A146" s="168"/>
       <c r="B146" s="193"/>
-      <c r="C146" s="318"/>
+      <c r="C146" s="303"/>
       <c r="D146" s="192"/>
       <c r="E146" s="156"/>
       <c r="F146" s="157"/>
@@ -8263,7 +8108,7 @@
     <row r="147" spans="1:29" ht="15.75" customHeight="1">
       <c r="A147" s="168"/>
       <c r="B147" s="193"/>
-      <c r="C147" s="315"/>
+      <c r="C147" s="301"/>
       <c r="D147" s="218"/>
       <c r="E147" s="156"/>
       <c r="F147" s="157"/>
@@ -8325,7 +8170,7 @@
     <row r="149" spans="1:29" ht="15.75" customHeight="1">
       <c r="A149" s="168"/>
       <c r="B149" s="193"/>
-      <c r="C149" s="318"/>
+      <c r="C149" s="303"/>
       <c r="D149" s="178"/>
       <c r="E149" s="156"/>
       <c r="F149" s="157"/>
@@ -8356,7 +8201,7 @@
     <row r="150" spans="1:29" ht="15.75" customHeight="1">
       <c r="A150" s="168"/>
       <c r="B150" s="193"/>
-      <c r="C150" s="314"/>
+      <c r="C150" s="306"/>
       <c r="D150" s="179"/>
       <c r="E150" s="156"/>
       <c r="F150" s="157"/>
@@ -8387,7 +8232,7 @@
     <row r="151" spans="1:29" ht="15.75" customHeight="1">
       <c r="A151" s="168"/>
       <c r="B151" s="193"/>
-      <c r="C151" s="315"/>
+      <c r="C151" s="301"/>
       <c r="D151" s="165"/>
       <c r="E151" s="156"/>
       <c r="F151" s="157"/>
@@ -8572,10 +8417,10 @@
     </row>
     <row r="157" spans="1:29" ht="15.75" customHeight="1">
       <c r="A157" s="230"/>
-      <c r="B157" s="322"/>
-      <c r="C157" s="318"/>
+      <c r="B157" s="305"/>
+      <c r="C157" s="303"/>
       <c r="D157" s="176"/>
-      <c r="E157" s="320"/>
+      <c r="E157" s="307"/>
       <c r="F157" s="195"/>
       <c r="G157" s="195"/>
       <c r="H157" s="196"/>
@@ -8603,10 +8448,10 @@
     </row>
     <row r="158" spans="1:29" ht="15.75" customHeight="1">
       <c r="A158" s="230"/>
-      <c r="B158" s="314"/>
-      <c r="C158" s="314"/>
+      <c r="B158" s="306"/>
+      <c r="C158" s="306"/>
       <c r="D158" s="176"/>
-      <c r="E158" s="314"/>
+      <c r="E158" s="306"/>
       <c r="F158" s="195"/>
       <c r="G158" s="195"/>
       <c r="H158" s="196"/>
@@ -8634,10 +8479,10 @@
     </row>
     <row r="159" spans="1:29" ht="15.75" customHeight="1">
       <c r="A159" s="230"/>
-      <c r="B159" s="314"/>
-      <c r="C159" s="314"/>
+      <c r="B159" s="306"/>
+      <c r="C159" s="306"/>
       <c r="D159" s="176"/>
-      <c r="E159" s="314"/>
+      <c r="E159" s="306"/>
       <c r="F159" s="195"/>
       <c r="G159" s="195"/>
       <c r="H159" s="196"/>
@@ -8665,10 +8510,10 @@
     </row>
     <row r="160" spans="1:29" ht="15.75" customHeight="1">
       <c r="A160" s="230"/>
-      <c r="B160" s="314"/>
-      <c r="C160" s="314"/>
+      <c r="B160" s="306"/>
+      <c r="C160" s="306"/>
       <c r="D160" s="176"/>
-      <c r="E160" s="314"/>
+      <c r="E160" s="306"/>
       <c r="F160" s="195"/>
       <c r="G160" s="195"/>
       <c r="H160" s="196"/>
@@ -8696,10 +8541,10 @@
     </row>
     <row r="161" spans="1:29" ht="15.75" customHeight="1">
       <c r="A161" s="230"/>
-      <c r="B161" s="314"/>
-      <c r="C161" s="314"/>
+      <c r="B161" s="306"/>
+      <c r="C161" s="306"/>
       <c r="D161" s="176"/>
-      <c r="E161" s="314"/>
+      <c r="E161" s="306"/>
       <c r="F161" s="195"/>
       <c r="G161" s="195"/>
       <c r="H161" s="196"/>
@@ -8727,10 +8572,10 @@
     </row>
     <row r="162" spans="1:29" ht="15.75" customHeight="1">
       <c r="A162" s="230"/>
-      <c r="B162" s="314"/>
-      <c r="C162" s="314"/>
+      <c r="B162" s="306"/>
+      <c r="C162" s="306"/>
       <c r="D162" s="176"/>
-      <c r="E162" s="314"/>
+      <c r="E162" s="306"/>
       <c r="F162" s="190"/>
       <c r="G162" s="190"/>
       <c r="H162" s="191"/>
@@ -8758,10 +8603,10 @@
     </row>
     <row r="163" spans="1:29" ht="15.75" customHeight="1">
       <c r="A163" s="230"/>
-      <c r="B163" s="314"/>
-      <c r="C163" s="314"/>
+      <c r="B163" s="306"/>
+      <c r="C163" s="306"/>
       <c r="D163" s="176"/>
-      <c r="E163" s="314"/>
+      <c r="E163" s="306"/>
       <c r="F163" s="195"/>
       <c r="G163" s="195"/>
       <c r="H163" s="196"/>
@@ -8789,10 +8634,10 @@
     </row>
     <row r="164" spans="1:29" ht="15.75" customHeight="1">
       <c r="A164" s="230"/>
-      <c r="B164" s="314"/>
-      <c r="C164" s="314"/>
+      <c r="B164" s="306"/>
+      <c r="C164" s="306"/>
       <c r="D164" s="176"/>
-      <c r="E164" s="315"/>
+      <c r="E164" s="301"/>
       <c r="F164" s="195"/>
       <c r="G164" s="195"/>
       <c r="H164" s="196"/>
@@ -8820,8 +8665,8 @@
     </row>
     <row r="165" spans="1:29" ht="15.75" customHeight="1">
       <c r="A165" s="230"/>
-      <c r="B165" s="314"/>
-      <c r="C165" s="314"/>
+      <c r="B165" s="306"/>
+      <c r="C165" s="306"/>
       <c r="D165" s="176"/>
       <c r="E165" s="156"/>
       <c r="F165" s="211"/>
@@ -8851,8 +8696,8 @@
     </row>
     <row r="166" spans="1:29" ht="15.75" customHeight="1">
       <c r="A166" s="230"/>
-      <c r="B166" s="314"/>
-      <c r="C166" s="314"/>
+      <c r="B166" s="306"/>
+      <c r="C166" s="306"/>
       <c r="D166" s="176"/>
       <c r="E166" s="156"/>
       <c r="F166" s="160"/>
@@ -8882,10 +8727,10 @@
     </row>
     <row r="167" spans="1:29" ht="15.75" customHeight="1">
       <c r="A167" s="230"/>
-      <c r="B167" s="314"/>
-      <c r="C167" s="314"/>
+      <c r="B167" s="306"/>
+      <c r="C167" s="306"/>
       <c r="D167" s="192"/>
-      <c r="E167" s="320"/>
+      <c r="E167" s="307"/>
       <c r="F167" s="157"/>
       <c r="G167" s="157"/>
       <c r="H167" s="158"/>
@@ -8913,10 +8758,10 @@
     </row>
     <row r="168" spans="1:29" ht="15.75" customHeight="1">
       <c r="A168" s="230"/>
-      <c r="B168" s="314"/>
-      <c r="C168" s="314"/>
+      <c r="B168" s="306"/>
+      <c r="C168" s="306"/>
       <c r="D168" s="171"/>
-      <c r="E168" s="314"/>
+      <c r="E168" s="306"/>
       <c r="F168" s="160"/>
       <c r="G168" s="160"/>
       <c r="H168" s="235"/>
@@ -8944,10 +8789,10 @@
     </row>
     <row r="169" spans="1:29" ht="15.75" customHeight="1">
       <c r="A169" s="230"/>
-      <c r="B169" s="314"/>
-      <c r="C169" s="314"/>
+      <c r="B169" s="306"/>
+      <c r="C169" s="306"/>
       <c r="D169" s="171"/>
-      <c r="E169" s="314"/>
+      <c r="E169" s="306"/>
       <c r="F169" s="160"/>
       <c r="G169" s="160"/>
       <c r="H169" s="235"/>
@@ -8975,10 +8820,10 @@
     </row>
     <row r="170" spans="1:29" ht="15.75" customHeight="1">
       <c r="A170" s="230"/>
-      <c r="B170" s="314"/>
-      <c r="C170" s="315"/>
+      <c r="B170" s="306"/>
+      <c r="C170" s="301"/>
       <c r="D170" s="218"/>
-      <c r="E170" s="315"/>
+      <c r="E170" s="301"/>
       <c r="F170" s="160"/>
       <c r="G170" s="160"/>
       <c r="H170" s="235"/>
@@ -9006,7 +8851,7 @@
     </row>
     <row r="171" spans="1:29" ht="15.75" customHeight="1">
       <c r="A171" s="230"/>
-      <c r="B171" s="314"/>
+      <c r="B171" s="306"/>
       <c r="C171" s="170"/>
       <c r="D171" s="171"/>
       <c r="E171" s="236"/>
@@ -9037,10 +8882,10 @@
     </row>
     <row r="172" spans="1:29" ht="15.75" customHeight="1">
       <c r="A172" s="230"/>
-      <c r="B172" s="314"/>
-      <c r="C172" s="318"/>
+      <c r="B172" s="306"/>
+      <c r="C172" s="303"/>
       <c r="D172" s="192"/>
-      <c r="E172" s="320"/>
+      <c r="E172" s="307"/>
       <c r="F172" s="157"/>
       <c r="G172" s="157"/>
       <c r="H172" s="158"/>
@@ -9068,10 +8913,10 @@
     </row>
     <row r="173" spans="1:29" ht="15.75" customHeight="1">
       <c r="A173" s="230"/>
-      <c r="B173" s="314"/>
-      <c r="C173" s="314"/>
+      <c r="B173" s="306"/>
+      <c r="C173" s="306"/>
       <c r="D173" s="218"/>
-      <c r="E173" s="315"/>
+      <c r="E173" s="301"/>
       <c r="F173" s="157"/>
       <c r="G173" s="157"/>
       <c r="H173" s="158"/>
@@ -9099,10 +8944,10 @@
     </row>
     <row r="174" spans="1:29" ht="15.75" customHeight="1">
       <c r="A174" s="230"/>
-      <c r="B174" s="314"/>
-      <c r="C174" s="314"/>
+      <c r="B174" s="306"/>
+      <c r="C174" s="306"/>
       <c r="D174" s="176"/>
-      <c r="E174" s="320"/>
+      <c r="E174" s="307"/>
       <c r="F174" s="157"/>
       <c r="G174" s="157"/>
       <c r="H174" s="158"/>
@@ -9130,10 +8975,10 @@
     </row>
     <row r="175" spans="1:29" ht="15.75" customHeight="1">
       <c r="A175" s="230"/>
-      <c r="B175" s="314"/>
-      <c r="C175" s="315"/>
+      <c r="B175" s="306"/>
+      <c r="C175" s="301"/>
       <c r="D175" s="176"/>
-      <c r="E175" s="315"/>
+      <c r="E175" s="301"/>
       <c r="F175" s="157"/>
       <c r="G175" s="157"/>
       <c r="H175" s="158"/>
@@ -9161,7 +9006,7 @@
     </row>
     <row r="176" spans="1:29" ht="15.75" customHeight="1">
       <c r="A176" s="230"/>
-      <c r="B176" s="314"/>
+      <c r="B176" s="306"/>
       <c r="C176" s="170"/>
       <c r="D176" s="176"/>
       <c r="E176" s="156"/>
@@ -9192,10 +9037,10 @@
     </row>
     <row r="177" spans="1:29" ht="15.75" customHeight="1">
       <c r="A177" s="230"/>
-      <c r="B177" s="314"/>
-      <c r="C177" s="318"/>
+      <c r="B177" s="306"/>
+      <c r="C177" s="303"/>
       <c r="D177" s="192"/>
-      <c r="E177" s="320"/>
+      <c r="E177" s="307"/>
       <c r="F177" s="157"/>
       <c r="G177" s="157"/>
       <c r="H177" s="158"/>
@@ -9223,10 +9068,10 @@
     </row>
     <row r="178" spans="1:29" ht="15.75" customHeight="1">
       <c r="A178" s="230"/>
-      <c r="B178" s="314"/>
-      <c r="C178" s="314"/>
+      <c r="B178" s="306"/>
+      <c r="C178" s="306"/>
       <c r="D178" s="171"/>
-      <c r="E178" s="314"/>
+      <c r="E178" s="306"/>
       <c r="F178" s="157"/>
       <c r="G178" s="157"/>
       <c r="H178" s="158"/>
@@ -9254,10 +9099,10 @@
     </row>
     <row r="179" spans="1:29" ht="15.75" customHeight="1">
       <c r="A179" s="230"/>
-      <c r="B179" s="314"/>
-      <c r="C179" s="314"/>
+      <c r="B179" s="306"/>
+      <c r="C179" s="306"/>
       <c r="D179" s="171"/>
-      <c r="E179" s="314"/>
+      <c r="E179" s="306"/>
       <c r="F179" s="157"/>
       <c r="G179" s="157"/>
       <c r="H179" s="158"/>
@@ -9285,10 +9130,10 @@
     </row>
     <row r="180" spans="1:29" ht="15.75" customHeight="1">
       <c r="A180" s="230"/>
-      <c r="B180" s="314"/>
-      <c r="C180" s="314"/>
+      <c r="B180" s="306"/>
+      <c r="C180" s="306"/>
       <c r="D180" s="171"/>
-      <c r="E180" s="314"/>
+      <c r="E180" s="306"/>
       <c r="F180" s="157"/>
       <c r="G180" s="157"/>
       <c r="H180" s="158"/>
@@ -9316,10 +9161,10 @@
     </row>
     <row r="181" spans="1:29" ht="15.75" customHeight="1">
       <c r="A181" s="230"/>
-      <c r="B181" s="314"/>
-      <c r="C181" s="314"/>
+      <c r="B181" s="306"/>
+      <c r="C181" s="306"/>
       <c r="D181" s="171"/>
-      <c r="E181" s="314"/>
+      <c r="E181" s="306"/>
       <c r="F181" s="195"/>
       <c r="G181" s="195"/>
       <c r="H181" s="196"/>
@@ -9347,10 +9192,10 @@
     </row>
     <row r="182" spans="1:29" ht="15.75" customHeight="1">
       <c r="A182" s="230"/>
-      <c r="B182" s="314"/>
-      <c r="C182" s="314"/>
+      <c r="B182" s="306"/>
+      <c r="C182" s="306"/>
       <c r="D182" s="218"/>
-      <c r="E182" s="315"/>
+      <c r="E182" s="301"/>
       <c r="F182" s="195"/>
       <c r="G182" s="195"/>
       <c r="H182" s="196"/>
@@ -9378,10 +9223,10 @@
     </row>
     <row r="183" spans="1:29" ht="15.75" customHeight="1">
       <c r="A183" s="230"/>
-      <c r="B183" s="314"/>
-      <c r="C183" s="314"/>
+      <c r="B183" s="306"/>
+      <c r="C183" s="306"/>
       <c r="D183" s="192"/>
-      <c r="E183" s="320"/>
+      <c r="E183" s="307"/>
       <c r="F183" s="157"/>
       <c r="G183" s="157"/>
       <c r="H183" s="158"/>
@@ -9409,10 +9254,10 @@
     </row>
     <row r="184" spans="1:29" ht="15.75" customHeight="1">
       <c r="A184" s="230"/>
-      <c r="B184" s="314"/>
-      <c r="C184" s="314"/>
+      <c r="B184" s="306"/>
+      <c r="C184" s="306"/>
       <c r="D184" s="171"/>
-      <c r="E184" s="314"/>
+      <c r="E184" s="306"/>
       <c r="F184" s="160"/>
       <c r="G184" s="160"/>
       <c r="H184" s="235"/>
@@ -9440,10 +9285,10 @@
     </row>
     <row r="185" spans="1:29" ht="15.75" customHeight="1">
       <c r="A185" s="230"/>
-      <c r="B185" s="314"/>
-      <c r="C185" s="314"/>
+      <c r="B185" s="306"/>
+      <c r="C185" s="306"/>
       <c r="D185" s="171"/>
-      <c r="E185" s="314"/>
+      <c r="E185" s="306"/>
       <c r="F185" s="160"/>
       <c r="G185" s="160"/>
       <c r="H185" s="235"/>
@@ -9471,10 +9316,10 @@
     </row>
     <row r="186" spans="1:29" ht="15.75" customHeight="1">
       <c r="A186" s="230"/>
-      <c r="B186" s="315"/>
-      <c r="C186" s="315"/>
+      <c r="B186" s="301"/>
+      <c r="C186" s="301"/>
       <c r="D186" s="218"/>
-      <c r="E186" s="315"/>
+      <c r="E186" s="301"/>
       <c r="F186" s="160"/>
       <c r="G186" s="160"/>
       <c r="H186" s="235"/>
@@ -18990,6 +18835,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="D42:D52"/>
+    <mergeCell ref="M42:M49"/>
+    <mergeCell ref="D54:D62"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="C114:C120"/>
+    <mergeCell ref="E114:E116"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="C157:C170"/>
+    <mergeCell ref="E157:E164"/>
+    <mergeCell ref="E167:E170"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="B157:B186"/>
+    <mergeCell ref="C172:C175"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="C177:C186"/>
+    <mergeCell ref="E177:E182"/>
+    <mergeCell ref="E183:E186"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="B21:B24"/>
     <mergeCell ref="B14:B17"/>
@@ -19002,30 +18871,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="K144:K145"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="B157:B186"/>
-    <mergeCell ref="C172:C175"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="C177:C186"/>
-    <mergeCell ref="E177:E182"/>
-    <mergeCell ref="E183:E186"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="E114:E116"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="C157:C170"/>
-    <mergeCell ref="E157:E164"/>
-    <mergeCell ref="E167:E170"/>
-    <mergeCell ref="C121:C122"/>
-    <mergeCell ref="C124:C128"/>
-    <mergeCell ref="D42:D52"/>
-    <mergeCell ref="M42:M49"/>
-    <mergeCell ref="D54:D62"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="L105:L107"/>
   </mergeCells>
   <conditionalFormatting sqref="L11:L254 K88:K93 K95:K96 K133 K147:K156">
     <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
@@ -19164,7 +19009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="67" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -19185,66 +19032,66 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1"/>
     <row r="3" spans="1:26" ht="8.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="25.5" customHeight="1">
-      <c r="B4" s="334" t="s">
+      <c r="B4" s="333" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="296"/>
+      <c r="I4" s="334" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="332"/>
-      <c r="D4" s="332"/>
-      <c r="E4" s="332"/>
-      <c r="F4" s="332"/>
-      <c r="G4" s="329"/>
-      <c r="I4" s="335" t="s">
+      <c r="J4" s="335"/>
+      <c r="K4" s="259"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B5" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="336"/>
-      <c r="K4" s="259"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B5" s="260" t="s">
+      <c r="C5" s="324" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="337" t="s">
+      <c r="D5" s="325"/>
+      <c r="E5" s="325"/>
+      <c r="F5" s="325"/>
+      <c r="G5" s="326"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B6" s="261" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="338"/>
-      <c r="E5" s="338"/>
-      <c r="F5" s="338"/>
-      <c r="G5" s="339"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B6" s="261" t="s">
+      <c r="C6" s="324" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="337" t="s">
+      <c r="D6" s="325"/>
+      <c r="E6" s="325"/>
+      <c r="F6" s="325"/>
+      <c r="G6" s="326"/>
+      <c r="I6" s="262" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="338"/>
-      <c r="E6" s="338"/>
-      <c r="F6" s="338"/>
-      <c r="G6" s="339"/>
-      <c r="I6" s="262" t="s">
+      <c r="J6" s="262" t="s">
         <v>94</v>
       </c>
-      <c r="J6" s="262" t="s">
+      <c r="L6" s="263" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="263" t="s">
+      <c r="M6" s="263" t="s">
         <v>96</v>
-      </c>
-      <c r="M6" s="263" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="264"/>
       <c r="B7" s="261" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
-      <c r="C7" s="337"/>
-      <c r="D7" s="338"/>
-      <c r="E7" s="338"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="339"/>
+      <c r="C7" s="324"/>
+      <c r="D7" s="325"/>
+      <c r="E7" s="325"/>
+      <c r="F7" s="325"/>
+      <c r="G7" s="326"/>
       <c r="I7" s="262"/>
       <c r="J7" s="262"/>
       <c r="L7" s="265"/>
@@ -19252,63 +19099,63 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="B8" s="260" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
-      <c r="C8" s="337">
+      <c r="C8" s="324">
         <v>1</v>
       </c>
-      <c r="D8" s="338"/>
-      <c r="E8" s="338"/>
-      <c r="F8" s="338"/>
-      <c r="G8" s="339"/>
+      <c r="D8" s="325"/>
+      <c r="E8" s="325"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="326"/>
       <c r="I8" s="266">
         <f>C16</f>
         <v>13</v>
       </c>
       <c r="J8" s="266" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" s="267"/>
       <c r="L8" s="267"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="B9" s="260" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
-      <c r="C9" s="337" t="s">
-        <v>14</v>
+      <c r="C9" s="324" t="s">
+        <v>13</v>
       </c>
-      <c r="D9" s="338"/>
-      <c r="E9" s="338"/>
-      <c r="F9" s="338"/>
-      <c r="G9" s="339"/>
+      <c r="D9" s="325"/>
+      <c r="E9" s="325"/>
+      <c r="F9" s="325"/>
+      <c r="G9" s="326"/>
       <c r="I9" s="266">
         <f>D16</f>
         <v>0</v>
       </c>
       <c r="J9" s="266" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="267"/>
       <c r="L9" s="268"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="B10" s="260" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
-      <c r="C10" s="337" t="s">
-        <v>14</v>
+      <c r="C10" s="324" t="s">
+        <v>13</v>
       </c>
-      <c r="D10" s="338"/>
-      <c r="E10" s="338"/>
-      <c r="F10" s="338"/>
-      <c r="G10" s="339"/>
+      <c r="D10" s="325"/>
+      <c r="E10" s="325"/>
+      <c r="F10" s="325"/>
+      <c r="G10" s="326"/>
       <c r="I10" s="266">
         <f>E16</f>
         <v>0</v>
       </c>
       <c r="J10" s="266" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L10" s="269"/>
       <c r="M10" s="269"/>
@@ -19318,21 +19165,21 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="B11" s="260" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
-      <c r="C11" s="337" t="s">
-        <v>104</v>
+      <c r="C11" s="324" t="s">
+        <v>116</v>
       </c>
-      <c r="D11" s="338"/>
-      <c r="E11" s="338"/>
-      <c r="F11" s="338"/>
-      <c r="G11" s="339"/>
+      <c r="D11" s="325"/>
+      <c r="E11" s="325"/>
+      <c r="F11" s="325"/>
+      <c r="G11" s="326"/>
       <c r="I11" s="266">
         <f>F16</f>
         <v>0</v>
       </c>
       <c r="J11" s="266" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L11" s="267"/>
       <c r="M11" s="267"/>
@@ -19341,47 +19188,47 @@
       <c r="P11" s="267"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B12" s="342" t="s">
+      <c r="B12" s="327" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="328"/>
+      <c r="D12" s="328"/>
+      <c r="E12" s="328"/>
+      <c r="F12" s="328"/>
+      <c r="G12" s="329"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B13" s="330"/>
+      <c r="C13" s="331"/>
+      <c r="D13" s="331"/>
+      <c r="E13" s="331"/>
+      <c r="F13" s="331"/>
+      <c r="G13" s="332"/>
+      <c r="I13" s="316" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="299"/>
+      <c r="K13" s="296"/>
+      <c r="L13" s="270"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="B14" s="271" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="343"/>
-      <c r="D12" s="343"/>
-      <c r="E12" s="343"/>
-      <c r="F12" s="343"/>
-      <c r="G12" s="344"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B13" s="345"/>
-      <c r="C13" s="346"/>
-      <c r="D13" s="346"/>
-      <c r="E13" s="346"/>
-      <c r="F13" s="346"/>
-      <c r="G13" s="347"/>
-      <c r="I13" s="348" t="s">
+      <c r="C14" s="272" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="272" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="272" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="272" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="332"/>
-      <c r="K13" s="329"/>
-      <c r="L13" s="270"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
-      <c r="B14" s="271" t="s">
+      <c r="G14" s="273" t="s">
         <v>108</v>
-      </c>
-      <c r="C14" s="272" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="272" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="272" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="272" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="273" t="s">
-        <v>110</v>
       </c>
       <c r="L14" s="267"/>
       <c r="M14" s="267"/>
@@ -19435,26 +19282,26 @@
       <c r="Z15" s="274"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1">
-      <c r="B16" s="349" t="s">
-        <v>111</v>
+      <c r="B16" s="317" t="s">
+        <v>109</v>
       </c>
-      <c r="C16" s="340">
+      <c r="C16" s="319">
         <f t="shared" ref="C16:G16" si="0">SUM(C15)</f>
         <v>13</v>
       </c>
-      <c r="D16" s="351">
+      <c r="D16" s="321">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="340">
+      <c r="E16" s="319">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="340">
+      <c r="F16" s="319">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="352">
+      <c r="G16" s="322">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -19467,12 +19314,12 @@
       <c r="R16" s="282"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B17" s="350"/>
-      <c r="C17" s="341"/>
-      <c r="D17" s="341"/>
-      <c r="E17" s="341"/>
-      <c r="F17" s="341"/>
-      <c r="G17" s="353"/>
+      <c r="B17" s="318"/>
+      <c r="C17" s="320"/>
+      <c r="D17" s="320"/>
+      <c r="E17" s="320"/>
+      <c r="F17" s="320"/>
+      <c r="G17" s="323"/>
       <c r="L17" s="259"/>
       <c r="M17" s="282"/>
       <c r="N17" s="282"/>
@@ -19497,55 +19344,55 @@
       <c r="R18" s="267"/>
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B19" s="354" t="s">
+      <c r="B19" s="313" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="299"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="296"/>
+    </row>
+    <row r="20" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B20" s="314" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="299"/>
+      <c r="D20" s="296"/>
+      <c r="E20" s="284"/>
+      <c r="F20" s="284" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="332"/>
-      <c r="D19" s="332"/>
-      <c r="E19" s="332"/>
-      <c r="F19" s="332"/>
-      <c r="G19" s="329"/>
-    </row>
-    <row r="20" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B20" s="355" t="s">
+      <c r="G20" s="284" t="s">
         <v>113</v>
       </c>
-      <c r="C20" s="332"/>
-      <c r="D20" s="329"/>
-      <c r="E20" s="284"/>
-      <c r="F20" s="284" t="s">
+    </row>
+    <row r="21" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B21" s="315" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="284" t="s">
+      <c r="C21" s="299"/>
+      <c r="D21" s="296"/>
+      <c r="E21" s="285"/>
+      <c r="F21" s="285" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="285" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15.75" customHeight="1">
+      <c r="B22" s="315" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B21" s="356" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="332"/>
-      <c r="D21" s="329"/>
-      <c r="E21" s="285"/>
-      <c r="F21" s="285" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="285" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="15.75" customHeight="1">
-      <c r="B22" s="356" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="332"/>
-      <c r="D22" s="329"/>
+      <c r="C22" s="299"/>
+      <c r="D22" s="296"/>
       <c r="E22" s="285"/>
       <c r="F22" s="285" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" s="285" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="15.75" customHeight="1"/>
@@ -20752,6 +20599,18 @@
     <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="B12:G13"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
@@ -20761,4754 +20620,9 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="B12:G13"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:D982"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="93.109375" customWidth="1"/>
-    <col min="3" max="3" width="0.44140625" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="26" width="45.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="12.75" customHeight="1"/>
-    <row r="2" spans="2:3" ht="12.75" customHeight="1"/>
-    <row r="3" spans="2:3" ht="12.75" customHeight="1">
-      <c r="C3" s="290"/>
-    </row>
-    <row r="4" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B4" s="291"/>
-      <c r="C4" s="291"/>
-    </row>
-    <row r="5" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B5" s="357"/>
-      <c r="C5" s="291"/>
-    </row>
-    <row r="6" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B6" s="336"/>
-      <c r="C6" s="291"/>
-    </row>
-    <row r="7" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B7" s="336"/>
-      <c r="C7" s="291"/>
-    </row>
-    <row r="8" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B8" s="292"/>
-      <c r="C8" s="291"/>
-    </row>
-    <row r="9" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B9" s="293"/>
-      <c r="C9" s="291"/>
-    </row>
-    <row r="10" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B10" s="293"/>
-      <c r="C10" s="291"/>
-    </row>
-    <row r="11" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B11" s="293"/>
-      <c r="C11" s="291"/>
-    </row>
-    <row r="12" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B12" s="293"/>
-      <c r="C12" s="291"/>
-    </row>
-    <row r="13" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B13" s="293"/>
-      <c r="C13" s="291"/>
-    </row>
-    <row r="14" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B14" s="294"/>
-      <c r="C14" s="291"/>
-    </row>
-    <row r="15" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B15" s="294"/>
-      <c r="C15" s="291"/>
-    </row>
-    <row r="16" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B16" s="294"/>
-      <c r="C16" s="291"/>
-    </row>
-    <row r="17" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B17" s="293"/>
-      <c r="C17" s="291"/>
-    </row>
-    <row r="18" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B18" s="293"/>
-      <c r="C18" s="291"/>
-    </row>
-    <row r="19" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B19" s="293"/>
-      <c r="C19" s="291"/>
-    </row>
-    <row r="20" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B20" s="293"/>
-      <c r="C20" s="291"/>
-    </row>
-    <row r="21" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B21" s="293"/>
-      <c r="C21" s="291"/>
-    </row>
-    <row r="22" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B22" s="295"/>
-      <c r="C22" s="291"/>
-    </row>
-    <row r="23" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B23" s="293"/>
-      <c r="C23" s="291"/>
-    </row>
-    <row r="24" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B24" s="293"/>
-      <c r="C24" s="291"/>
-    </row>
-    <row r="25" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B25" s="293"/>
-      <c r="C25" s="291"/>
-    </row>
-    <row r="26" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B26" s="292"/>
-      <c r="C26" s="291"/>
-    </row>
-    <row r="27" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B27" s="292"/>
-      <c r="C27" s="291"/>
-    </row>
-    <row r="28" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B28" s="358"/>
-      <c r="C28" s="291"/>
-    </row>
-    <row r="29" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B29" s="336"/>
-      <c r="C29" s="291"/>
-    </row>
-    <row r="30" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B30" s="336"/>
-      <c r="C30" s="291"/>
-    </row>
-    <row r="31" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B31" s="292"/>
-      <c r="C31" s="291"/>
-    </row>
-    <row r="32" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B32" s="293"/>
-      <c r="C32" s="291"/>
-    </row>
-    <row r="33" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B33" s="293"/>
-      <c r="C33" s="291"/>
-    </row>
-    <row r="34" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B34" s="293"/>
-      <c r="C34" s="291"/>
-    </row>
-    <row r="35" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B35" s="293"/>
-      <c r="C35" s="291"/>
-    </row>
-    <row r="36" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B36" s="293"/>
-      <c r="C36" s="291"/>
-    </row>
-    <row r="37" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B37" s="294"/>
-      <c r="C37" s="291"/>
-    </row>
-    <row r="38" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B38" s="294"/>
-      <c r="C38" s="291"/>
-    </row>
-    <row r="39" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B39" s="294"/>
-      <c r="C39" s="291"/>
-    </row>
-    <row r="40" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B40" s="293"/>
-      <c r="C40" s="291"/>
-    </row>
-    <row r="41" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B41" s="293"/>
-      <c r="C41" s="291"/>
-    </row>
-    <row r="42" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B42" s="293"/>
-      <c r="C42" s="291"/>
-    </row>
-    <row r="43" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B43" s="293"/>
-      <c r="C43" s="291"/>
-    </row>
-    <row r="44" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B44" s="293"/>
-      <c r="C44" s="291"/>
-    </row>
-    <row r="45" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B45" s="295"/>
-      <c r="C45" s="291"/>
-    </row>
-    <row r="46" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B46" s="293"/>
-      <c r="C46" s="291"/>
-    </row>
-    <row r="47" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B47" s="293"/>
-      <c r="C47" s="291"/>
-    </row>
-    <row r="48" spans="2:3" ht="13.5" customHeight="1">
-      <c r="B48" s="293"/>
-      <c r="C48" s="291"/>
-    </row>
-    <row r="49" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B49" s="292"/>
-      <c r="C49" s="291"/>
-    </row>
-    <row r="50" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B50" s="292"/>
-      <c r="C50" s="291"/>
-    </row>
-    <row r="51" spans="2:4" ht="13.5" customHeight="1">
-      <c r="B51" s="292"/>
-      <c r="C51" s="291"/>
-    </row>
-    <row r="52" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B52" s="296"/>
-      <c r="C52" s="297"/>
-    </row>
-    <row r="53" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B53" s="298"/>
-      <c r="D53" s="258"/>
-    </row>
-    <row r="54" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B54" s="357"/>
-    </row>
-    <row r="55" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B55" s="336"/>
-    </row>
-    <row r="56" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B56" s="336"/>
-    </row>
-    <row r="57" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B57" s="292"/>
-    </row>
-    <row r="58" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B58" s="293"/>
-    </row>
-    <row r="59" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B59" s="293"/>
-    </row>
-    <row r="60" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B60" s="293"/>
-    </row>
-    <row r="61" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B61" s="293"/>
-    </row>
-    <row r="62" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B62" s="293"/>
-    </row>
-    <row r="63" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B63" s="294"/>
-    </row>
-    <row r="64" spans="2:4" ht="12.75" customHeight="1">
-      <c r="B64" s="294"/>
-    </row>
-    <row r="65" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B65" s="294"/>
-    </row>
-    <row r="66" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B66" s="294"/>
-    </row>
-    <row r="67" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B67" s="294"/>
-    </row>
-    <row r="68" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B68" s="294"/>
-    </row>
-    <row r="69" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B69" s="294"/>
-    </row>
-    <row r="70" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B70" s="294"/>
-    </row>
-    <row r="71" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B71" s="293"/>
-    </row>
-    <row r="72" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B72" s="293"/>
-    </row>
-    <row r="73" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B73" s="293"/>
-    </row>
-    <row r="74" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B74" s="293"/>
-    </row>
-    <row r="75" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B75" s="293"/>
-    </row>
-    <row r="76" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B76" s="293"/>
-    </row>
-    <row r="77" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B77" s="295"/>
-    </row>
-    <row r="78" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B78" s="293"/>
-    </row>
-    <row r="79" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B79" s="293"/>
-    </row>
-    <row r="80" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B80" s="293"/>
-    </row>
-    <row r="81" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B81" s="292"/>
-    </row>
-    <row r="82" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B82" s="292"/>
-    </row>
-    <row r="83" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B83" s="358"/>
-    </row>
-    <row r="84" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B84" s="336"/>
-    </row>
-    <row r="85" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B85" s="336"/>
-    </row>
-    <row r="86" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B86" s="292"/>
-    </row>
-    <row r="87" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B87" s="293"/>
-    </row>
-    <row r="88" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B88" s="293"/>
-    </row>
-    <row r="89" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B89" s="293"/>
-    </row>
-    <row r="90" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B90" s="293"/>
-    </row>
-    <row r="91" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B91" s="293"/>
-    </row>
-    <row r="92" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B92" s="294"/>
-    </row>
-    <row r="93" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B93" s="294"/>
-    </row>
-    <row r="94" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B94" s="294"/>
-    </row>
-    <row r="95" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B95" s="294"/>
-    </row>
-    <row r="96" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B96" s="294"/>
-    </row>
-    <row r="97" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B97" s="294"/>
-    </row>
-    <row r="98" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B98" s="294"/>
-    </row>
-    <row r="99" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B99" s="293"/>
-    </row>
-    <row r="100" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B100" s="293"/>
-    </row>
-    <row r="101" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B101" s="293"/>
-    </row>
-    <row r="102" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B102" s="293"/>
-    </row>
-    <row r="103" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B103" s="293"/>
-    </row>
-    <row r="104" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B104" s="293"/>
-    </row>
-    <row r="105" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B105" s="295"/>
-    </row>
-    <row r="106" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B106" s="293"/>
-    </row>
-    <row r="107" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B107" s="293"/>
-    </row>
-    <row r="108" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B108" s="293"/>
-    </row>
-    <row r="109" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B109" s="298"/>
-    </row>
-    <row r="110" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B110" s="298"/>
-    </row>
-    <row r="111" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B111" s="298"/>
-    </row>
-    <row r="112" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B112" s="357"/>
-    </row>
-    <row r="113" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B113" s="336"/>
-    </row>
-    <row r="114" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B114" s="336"/>
-    </row>
-    <row r="115" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B115" s="292"/>
-    </row>
-    <row r="116" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B116" s="293"/>
-    </row>
-    <row r="117" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B117" s="293"/>
-    </row>
-    <row r="118" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B118" s="293"/>
-    </row>
-    <row r="119" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B119" s="293"/>
-    </row>
-    <row r="120" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B120" s="293"/>
-    </row>
-    <row r="121" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B121" s="294"/>
-    </row>
-    <row r="122" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B122" s="294"/>
-    </row>
-    <row r="123" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B123" s="294"/>
-    </row>
-    <row r="124" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B124" s="294"/>
-    </row>
-    <row r="125" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B125" s="294"/>
-    </row>
-    <row r="126" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B126" s="293"/>
-    </row>
-    <row r="127" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B127" s="293"/>
-    </row>
-    <row r="128" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B128" s="293"/>
-    </row>
-    <row r="129" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B129" s="293"/>
-    </row>
-    <row r="130" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B130" s="293"/>
-    </row>
-    <row r="131" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B131" s="293"/>
-    </row>
-    <row r="132" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B132" s="295"/>
-    </row>
-    <row r="133" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B133" s="293"/>
-    </row>
-    <row r="134" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B134" s="293"/>
-    </row>
-    <row r="135" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B135" s="293"/>
-    </row>
-    <row r="136" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B136" s="292"/>
-    </row>
-    <row r="137" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B137" s="292"/>
-    </row>
-    <row r="138" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B138" s="358"/>
-    </row>
-    <row r="139" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B139" s="336"/>
-    </row>
-    <row r="140" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B140" s="336"/>
-    </row>
-    <row r="141" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B141" s="292"/>
-    </row>
-    <row r="142" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B142" s="293"/>
-    </row>
-    <row r="143" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B143" s="293"/>
-    </row>
-    <row r="144" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B144" s="293"/>
-    </row>
-    <row r="145" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B145" s="293"/>
-    </row>
-    <row r="146" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B146" s="293"/>
-    </row>
-    <row r="147" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B147" s="294"/>
-    </row>
-    <row r="148" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B148" s="294"/>
-    </row>
-    <row r="149" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B149" s="294"/>
-    </row>
-    <row r="150" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B150" s="294"/>
-    </row>
-    <row r="151" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B151" s="294"/>
-    </row>
-    <row r="152" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B152" s="294"/>
-    </row>
-    <row r="153" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B153" s="294"/>
-    </row>
-    <row r="154" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B154" s="294"/>
-    </row>
-    <row r="155" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B155" s="293"/>
-    </row>
-    <row r="156" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B156" s="293"/>
-    </row>
-    <row r="157" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B157" s="293"/>
-    </row>
-    <row r="158" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B158" s="293"/>
-    </row>
-    <row r="159" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B159" s="293"/>
-    </row>
-    <row r="160" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B160" s="293"/>
-    </row>
-    <row r="161" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B161" s="295"/>
-    </row>
-    <row r="162" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B162" s="293"/>
-    </row>
-    <row r="163" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B163" s="293"/>
-    </row>
-    <row r="164" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B164" s="293"/>
-    </row>
-    <row r="165" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="166" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="167" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="168" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="169" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="170" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="171" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="172" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="173" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="174" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="175" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="176" spans="2:2" ht="12.75" customHeight="1"/>
-    <row r="177" ht="12.75" customHeight="1"/>
-    <row r="178" ht="12.75" customHeight="1"/>
-    <row r="179" ht="12.75" customHeight="1"/>
-    <row r="180" ht="12.75" customHeight="1"/>
-    <row r="181" ht="12.75" customHeight="1"/>
-    <row r="182" ht="12.75" customHeight="1"/>
-    <row r="183" ht="12.75" customHeight="1"/>
-    <row r="184" ht="12.75" customHeight="1"/>
-    <row r="185" ht="12.75" customHeight="1"/>
-    <row r="186" ht="12.75" customHeight="1"/>
-    <row r="187" ht="12.75" customHeight="1"/>
-    <row r="188" ht="12.75" customHeight="1"/>
-    <row r="189" ht="12.75" customHeight="1"/>
-    <row r="190" ht="12.75" customHeight="1"/>
-    <row r="191" ht="12.75" customHeight="1"/>
-    <row r="192" ht="12.75" customHeight="1"/>
-    <row r="193" ht="12.75" customHeight="1"/>
-    <row r="194" ht="12.75" customHeight="1"/>
-    <row r="195" ht="12.75" customHeight="1"/>
-    <row r="196" ht="12.75" customHeight="1"/>
-    <row r="197" ht="12.75" customHeight="1"/>
-    <row r="198" ht="12.75" customHeight="1"/>
-    <row r="199" ht="12.75" customHeight="1"/>
-    <row r="200" ht="12.75" customHeight="1"/>
-    <row r="201" ht="12.75" customHeight="1"/>
-    <row r="202" ht="12.75" customHeight="1"/>
-    <row r="203" ht="12.75" customHeight="1"/>
-    <row r="204" ht="12.75" customHeight="1"/>
-    <row r="205" ht="12.75" customHeight="1"/>
-    <row r="206" ht="12.75" customHeight="1"/>
-    <row r="207" ht="12.75" customHeight="1"/>
-    <row r="208" ht="12.75" customHeight="1"/>
-    <row r="209" ht="12.75" customHeight="1"/>
-    <row r="210" ht="12.75" customHeight="1"/>
-    <row r="211" ht="12.75" customHeight="1"/>
-    <row r="212" ht="12.75" customHeight="1"/>
-    <row r="213" ht="12.75" customHeight="1"/>
-    <row r="214" ht="12.75" customHeight="1"/>
-    <row r="215" ht="12.75" customHeight="1"/>
-    <row r="216" ht="12.75" customHeight="1"/>
-    <row r="217" ht="12.75" customHeight="1"/>
-    <row r="218" ht="12.75" customHeight="1"/>
-    <row r="219" ht="12.75" customHeight="1"/>
-    <row r="220" ht="12.75" customHeight="1"/>
-    <row r="221" ht="12.75" customHeight="1"/>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
-    <row r="227" ht="12.75" customHeight="1"/>
-    <row r="228" ht="12.75" customHeight="1"/>
-    <row r="229" ht="12.75" customHeight="1"/>
-    <row r="230" ht="12.75" customHeight="1"/>
-    <row r="231" ht="12.75" customHeight="1"/>
-    <row r="232" ht="12.75" customHeight="1"/>
-    <row r="233" ht="12.75" customHeight="1"/>
-    <row r="234" ht="12.75" customHeight="1"/>
-    <row r="235" ht="12.75" customHeight="1"/>
-    <row r="236" ht="12.75" customHeight="1"/>
-    <row r="237" ht="12.75" customHeight="1"/>
-    <row r="238" ht="12.75" customHeight="1"/>
-    <row r="239" ht="12.75" customHeight="1"/>
-    <row r="240" ht="12.75" customHeight="1"/>
-    <row r="241" ht="12.75" customHeight="1"/>
-    <row r="242" ht="12.75" customHeight="1"/>
-    <row r="243" ht="12.75" customHeight="1"/>
-    <row r="244" ht="12.75" customHeight="1"/>
-    <row r="245" ht="12.75" customHeight="1"/>
-    <row r="246" ht="12.75" customHeight="1"/>
-    <row r="247" ht="12.75" customHeight="1"/>
-    <row r="248" ht="12.75" customHeight="1"/>
-    <row r="249" ht="12.75" customHeight="1"/>
-    <row r="250" ht="12.75" customHeight="1"/>
-    <row r="251" ht="12.75" customHeight="1"/>
-    <row r="252" ht="12.75" customHeight="1"/>
-    <row r="253" ht="12.75" customHeight="1"/>
-    <row r="254" ht="12.75" customHeight="1"/>
-    <row r="255" ht="12.75" customHeight="1"/>
-    <row r="256" ht="12.75" customHeight="1"/>
-    <row r="257" ht="12.75" customHeight="1"/>
-    <row r="258" ht="12.75" customHeight="1"/>
-    <row r="259" ht="12.75" customHeight="1"/>
-    <row r="260" ht="12.75" customHeight="1"/>
-    <row r="261" ht="12.75" customHeight="1"/>
-    <row r="262" ht="12.75" customHeight="1"/>
-    <row r="263" ht="12.75" customHeight="1"/>
-    <row r="264" ht="12.75" customHeight="1"/>
-    <row r="265" ht="12.75" customHeight="1"/>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
-    <row r="289" ht="12.75" customHeight="1"/>
-    <row r="290" ht="12.75" customHeight="1"/>
-    <row r="291" ht="12.75" customHeight="1"/>
-    <row r="292" ht="12.75" customHeight="1"/>
-    <row r="293" ht="12.75" customHeight="1"/>
-    <row r="294" ht="12.75" customHeight="1"/>
-    <row r="295" ht="12.75" customHeight="1"/>
-    <row r="296" ht="12.75" customHeight="1"/>
-    <row r="297" ht="12.75" customHeight="1"/>
-    <row r="298" ht="12.75" customHeight="1"/>
-    <row r="299" ht="12.75" customHeight="1"/>
-    <row r="300" ht="12.75" customHeight="1"/>
-    <row r="301" ht="12.75" customHeight="1"/>
-    <row r="302" ht="12.75" customHeight="1"/>
-    <row r="303" ht="12.75" customHeight="1"/>
-    <row r="304" ht="12.75" customHeight="1"/>
-    <row r="305" ht="12.75" customHeight="1"/>
-    <row r="306" ht="12.75" customHeight="1"/>
-    <row r="307" ht="12.75" customHeight="1"/>
-    <row r="308" ht="12.75" customHeight="1"/>
-    <row r="309" ht="12.75" customHeight="1"/>
-    <row r="310" ht="12.75" customHeight="1"/>
-    <row r="311" ht="12.75" customHeight="1"/>
-    <row r="312" ht="12.75" customHeight="1"/>
-    <row r="313" ht="12.75" customHeight="1"/>
-    <row r="314" ht="12.75" customHeight="1"/>
-    <row r="315" ht="12.75" customHeight="1"/>
-    <row r="316" ht="12.75" customHeight="1"/>
-    <row r="317" ht="12.75" customHeight="1"/>
-    <row r="318" ht="12.75" customHeight="1"/>
-    <row r="319" ht="12.75" customHeight="1"/>
-    <row r="320" ht="12.75" customHeight="1"/>
-    <row r="321" ht="12.75" customHeight="1"/>
-    <row r="322" ht="12.75" customHeight="1"/>
-    <row r="323" ht="12.75" customHeight="1"/>
-    <row r="324" ht="12.75" customHeight="1"/>
-    <row r="325" ht="12.75" customHeight="1"/>
-    <row r="326" ht="12.75" customHeight="1"/>
-    <row r="327" ht="12.75" customHeight="1"/>
-    <row r="328" ht="12.75" customHeight="1"/>
-    <row r="329" ht="12.75" customHeight="1"/>
-    <row r="330" ht="12.75" customHeight="1"/>
-    <row r="331" ht="12.75" customHeight="1"/>
-    <row r="332" ht="12.75" customHeight="1"/>
-    <row r="333" ht="12.75" customHeight="1"/>
-    <row r="334" ht="12.75" customHeight="1"/>
-    <row r="335" ht="12.75" customHeight="1"/>
-    <row r="336" ht="12.75" customHeight="1"/>
-    <row r="337" ht="12.75" customHeight="1"/>
-    <row r="338" ht="12.75" customHeight="1"/>
-    <row r="339" ht="12.75" customHeight="1"/>
-    <row r="340" ht="12.75" customHeight="1"/>
-    <row r="341" ht="12.75" customHeight="1"/>
-    <row r="342" ht="12.75" customHeight="1"/>
-    <row r="343" ht="12.75" customHeight="1"/>
-    <row r="344" ht="12.75" customHeight="1"/>
-    <row r="345" ht="12.75" customHeight="1"/>
-    <row r="346" ht="12.75" customHeight="1"/>
-    <row r="347" ht="12.75" customHeight="1"/>
-    <row r="348" ht="12.75" customHeight="1"/>
-    <row r="349" ht="12.75" customHeight="1"/>
-    <row r="350" ht="12.75" customHeight="1"/>
-    <row r="351" ht="12.75" customHeight="1"/>
-    <row r="352" ht="12.75" customHeight="1"/>
-    <row r="353" ht="12.75" customHeight="1"/>
-    <row r="354" ht="12.75" customHeight="1"/>
-    <row r="355" ht="12.75" customHeight="1"/>
-    <row r="356" ht="12.75" customHeight="1"/>
-    <row r="357" ht="12.75" customHeight="1"/>
-    <row r="358" ht="12.75" customHeight="1"/>
-    <row r="359" ht="12.75" customHeight="1"/>
-    <row r="360" ht="12.75" customHeight="1"/>
-    <row r="361" ht="12.75" customHeight="1"/>
-    <row r="362" ht="12.75" customHeight="1"/>
-    <row r="363" ht="12.75" customHeight="1"/>
-    <row r="364" ht="12.75" customHeight="1"/>
-    <row r="365" ht="12.75" customHeight="1"/>
-    <row r="366" ht="12.75" customHeight="1"/>
-    <row r="367" ht="12.75" customHeight="1"/>
-    <row r="368" ht="12.75" customHeight="1"/>
-    <row r="369" ht="12.75" customHeight="1"/>
-    <row r="370" ht="12.75" customHeight="1"/>
-    <row r="371" ht="12.75" customHeight="1"/>
-    <row r="372" ht="12.75" customHeight="1"/>
-    <row r="373" ht="12.75" customHeight="1"/>
-    <row r="374" ht="12.75" customHeight="1"/>
-    <row r="375" ht="12.75" customHeight="1"/>
-    <row r="376" ht="12.75" customHeight="1"/>
-    <row r="377" ht="12.75" customHeight="1"/>
-    <row r="378" ht="12.75" customHeight="1"/>
-    <row r="379" ht="12.75" customHeight="1"/>
-    <row r="380" ht="12.75" customHeight="1"/>
-    <row r="381" ht="12.75" customHeight="1"/>
-    <row r="382" ht="12.75" customHeight="1"/>
-    <row r="383" ht="12.75" customHeight="1"/>
-    <row r="384" ht="12.75" customHeight="1"/>
-    <row r="385" ht="12.75" customHeight="1"/>
-    <row r="386" ht="12.75" customHeight="1"/>
-    <row r="387" ht="12.75" customHeight="1"/>
-    <row r="388" ht="12.75" customHeight="1"/>
-    <row r="389" ht="12.75" customHeight="1"/>
-    <row r="390" ht="12.75" customHeight="1"/>
-    <row r="391" ht="12.75" customHeight="1"/>
-    <row r="392" ht="12.75" customHeight="1"/>
-    <row r="393" ht="12.75" customHeight="1"/>
-    <row r="394" ht="12.75" customHeight="1"/>
-    <row r="395" ht="12.75" customHeight="1"/>
-    <row r="396" ht="12.75" customHeight="1"/>
-    <row r="397" ht="12.75" customHeight="1"/>
-    <row r="398" ht="12.75" customHeight="1"/>
-    <row r="399" ht="12.75" customHeight="1"/>
-    <row r="400" ht="12.75" customHeight="1"/>
-    <row r="401" ht="12.75" customHeight="1"/>
-    <row r="402" ht="12.75" customHeight="1"/>
-    <row r="403" ht="12.75" customHeight="1"/>
-    <row r="404" ht="12.75" customHeight="1"/>
-    <row r="405" ht="12.75" customHeight="1"/>
-    <row r="406" ht="12.75" customHeight="1"/>
-    <row r="407" ht="12.75" customHeight="1"/>
-    <row r="408" ht="12.75" customHeight="1"/>
-    <row r="409" ht="12.75" customHeight="1"/>
-    <row r="410" ht="12.75" customHeight="1"/>
-    <row r="411" ht="12.75" customHeight="1"/>
-    <row r="412" ht="12.75" customHeight="1"/>
-    <row r="413" ht="12.75" customHeight="1"/>
-    <row r="414" ht="12.75" customHeight="1"/>
-    <row r="415" ht="12.75" customHeight="1"/>
-    <row r="416" ht="12.75" customHeight="1"/>
-    <row r="417" ht="12.75" customHeight="1"/>
-    <row r="418" ht="12.75" customHeight="1"/>
-    <row r="419" ht="12.75" customHeight="1"/>
-    <row r="420" ht="12.75" customHeight="1"/>
-    <row r="421" ht="12.75" customHeight="1"/>
-    <row r="422" ht="12.75" customHeight="1"/>
-    <row r="423" ht="12.75" customHeight="1"/>
-    <row r="424" ht="12.75" customHeight="1"/>
-    <row r="425" ht="12.75" customHeight="1"/>
-    <row r="426" ht="12.75" customHeight="1"/>
-    <row r="427" ht="12.75" customHeight="1"/>
-    <row r="428" ht="12.75" customHeight="1"/>
-    <row r="429" ht="12.75" customHeight="1"/>
-    <row r="430" ht="12.75" customHeight="1"/>
-    <row r="431" ht="12.75" customHeight="1"/>
-    <row r="432" ht="12.75" customHeight="1"/>
-    <row r="433" ht="12.75" customHeight="1"/>
-    <row r="434" ht="12.75" customHeight="1"/>
-    <row r="435" ht="12.75" customHeight="1"/>
-    <row r="436" ht="12.75" customHeight="1"/>
-    <row r="437" ht="12.75" customHeight="1"/>
-    <row r="438" ht="12.75" customHeight="1"/>
-    <row r="439" ht="12.75" customHeight="1"/>
-    <row r="440" ht="12.75" customHeight="1"/>
-    <row r="441" ht="12.75" customHeight="1"/>
-    <row r="442" ht="12.75" customHeight="1"/>
-    <row r="443" ht="12.75" customHeight="1"/>
-    <row r="444" ht="12.75" customHeight="1"/>
-    <row r="445" ht="12.75" customHeight="1"/>
-    <row r="446" ht="12.75" customHeight="1"/>
-    <row r="447" ht="12.75" customHeight="1"/>
-    <row r="448" ht="12.75" customHeight="1"/>
-    <row r="449" ht="12.75" customHeight="1"/>
-    <row r="450" ht="12.75" customHeight="1"/>
-    <row r="451" ht="12.75" customHeight="1"/>
-    <row r="452" ht="12.75" customHeight="1"/>
-    <row r="453" ht="12.75" customHeight="1"/>
-    <row r="454" ht="12.75" customHeight="1"/>
-    <row r="455" ht="12.75" customHeight="1"/>
-    <row r="456" ht="12.75" customHeight="1"/>
-    <row r="457" ht="12.75" customHeight="1"/>
-    <row r="458" ht="12.75" customHeight="1"/>
-    <row r="459" ht="12.75" customHeight="1"/>
-    <row r="460" ht="12.75" customHeight="1"/>
-    <row r="461" ht="12.75" customHeight="1"/>
-    <row r="462" ht="12.75" customHeight="1"/>
-    <row r="463" ht="12.75" customHeight="1"/>
-    <row r="464" ht="12.75" customHeight="1"/>
-    <row r="465" ht="12.75" customHeight="1"/>
-    <row r="466" ht="12.75" customHeight="1"/>
-    <row r="467" ht="12.75" customHeight="1"/>
-    <row r="468" ht="12.75" customHeight="1"/>
-    <row r="469" ht="12.75" customHeight="1"/>
-    <row r="470" ht="12.75" customHeight="1"/>
-    <row r="471" ht="12.75" customHeight="1"/>
-    <row r="472" ht="12.75" customHeight="1"/>
-    <row r="473" ht="12.75" customHeight="1"/>
-    <row r="474" ht="12.75" customHeight="1"/>
-    <row r="475" ht="12.75" customHeight="1"/>
-    <row r="476" ht="12.75" customHeight="1"/>
-    <row r="477" ht="12.75" customHeight="1"/>
-    <row r="478" ht="12.75" customHeight="1"/>
-    <row r="479" ht="12.75" customHeight="1"/>
-    <row r="480" ht="12.75" customHeight="1"/>
-    <row r="481" ht="12.75" customHeight="1"/>
-    <row r="482" ht="12.75" customHeight="1"/>
-    <row r="483" ht="12.75" customHeight="1"/>
-    <row r="484" ht="12.75" customHeight="1"/>
-    <row r="485" ht="12.75" customHeight="1"/>
-    <row r="486" ht="12.75" customHeight="1"/>
-    <row r="487" ht="12.75" customHeight="1"/>
-    <row r="488" ht="12.75" customHeight="1"/>
-    <row r="489" ht="12.75" customHeight="1"/>
-    <row r="490" ht="12.75" customHeight="1"/>
-    <row r="491" ht="12.75" customHeight="1"/>
-    <row r="492" ht="12.75" customHeight="1"/>
-    <row r="493" ht="12.75" customHeight="1"/>
-    <row r="494" ht="12.75" customHeight="1"/>
-    <row r="495" ht="12.75" customHeight="1"/>
-    <row r="496" ht="12.75" customHeight="1"/>
-    <row r="497" ht="12.75" customHeight="1"/>
-    <row r="498" ht="12.75" customHeight="1"/>
-    <row r="499" ht="12.75" customHeight="1"/>
-    <row r="500" ht="12.75" customHeight="1"/>
-    <row r="501" ht="12.75" customHeight="1"/>
-    <row r="502" ht="12.75" customHeight="1"/>
-    <row r="503" ht="12.75" customHeight="1"/>
-    <row r="504" ht="12.75" customHeight="1"/>
-    <row r="505" ht="12.75" customHeight="1"/>
-    <row r="506" ht="12.75" customHeight="1"/>
-    <row r="507" ht="12.75" customHeight="1"/>
-    <row r="508" ht="12.75" customHeight="1"/>
-    <row r="509" ht="12.75" customHeight="1"/>
-    <row r="510" ht="12.75" customHeight="1"/>
-    <row r="511" ht="12.75" customHeight="1"/>
-    <row r="512" ht="12.75" customHeight="1"/>
-    <row r="513" ht="12.75" customHeight="1"/>
-    <row r="514" ht="12.75" customHeight="1"/>
-    <row r="515" ht="12.75" customHeight="1"/>
-    <row r="516" ht="12.75" customHeight="1"/>
-    <row r="517" ht="12.75" customHeight="1"/>
-    <row r="518" ht="12.75" customHeight="1"/>
-    <row r="519" ht="12.75" customHeight="1"/>
-    <row r="520" ht="12.75" customHeight="1"/>
-    <row r="521" ht="12.75" customHeight="1"/>
-    <row r="522" ht="12.75" customHeight="1"/>
-    <row r="523" ht="12.75" customHeight="1"/>
-    <row r="524" ht="12.75" customHeight="1"/>
-    <row r="525" ht="12.75" customHeight="1"/>
-    <row r="526" ht="12.75" customHeight="1"/>
-    <row r="527" ht="12.75" customHeight="1"/>
-    <row r="528" ht="12.75" customHeight="1"/>
-    <row r="529" ht="12.75" customHeight="1"/>
-    <row r="530" ht="12.75" customHeight="1"/>
-    <row r="531" ht="12.75" customHeight="1"/>
-    <row r="532" ht="12.75" customHeight="1"/>
-    <row r="533" ht="12.75" customHeight="1"/>
-    <row r="534" ht="12.75" customHeight="1"/>
-    <row r="535" ht="12.75" customHeight="1"/>
-    <row r="536" ht="12.75" customHeight="1"/>
-    <row r="537" ht="12.75" customHeight="1"/>
-    <row r="538" ht="12.75" customHeight="1"/>
-    <row r="539" ht="12.75" customHeight="1"/>
-    <row r="540" ht="12.75" customHeight="1"/>
-    <row r="541" ht="12.75" customHeight="1"/>
-    <row r="542" ht="12.75" customHeight="1"/>
-    <row r="543" ht="12.75" customHeight="1"/>
-    <row r="544" ht="12.75" customHeight="1"/>
-    <row r="545" ht="12.75" customHeight="1"/>
-    <row r="546" ht="12.75" customHeight="1"/>
-    <row r="547" ht="12.75" customHeight="1"/>
-    <row r="548" ht="12.75" customHeight="1"/>
-    <row r="549" ht="12.75" customHeight="1"/>
-    <row r="550" ht="12.75" customHeight="1"/>
-    <row r="551" ht="12.75" customHeight="1"/>
-    <row r="552" ht="12.75" customHeight="1"/>
-    <row r="553" ht="12.75" customHeight="1"/>
-    <row r="554" ht="12.75" customHeight="1"/>
-    <row r="555" ht="12.75" customHeight="1"/>
-    <row r="556" ht="12.75" customHeight="1"/>
-    <row r="557" ht="12.75" customHeight="1"/>
-    <row r="558" ht="12.75" customHeight="1"/>
-    <row r="559" ht="12.75" customHeight="1"/>
-    <row r="560" ht="12.75" customHeight="1"/>
-    <row r="561" ht="12.75" customHeight="1"/>
-    <row r="562" ht="12.75" customHeight="1"/>
-    <row r="563" ht="12.75" customHeight="1"/>
-    <row r="564" ht="12.75" customHeight="1"/>
-    <row r="565" ht="12.75" customHeight="1"/>
-    <row r="566" ht="12.75" customHeight="1"/>
-    <row r="567" ht="12.75" customHeight="1"/>
-    <row r="568" ht="12.75" customHeight="1"/>
-    <row r="569" ht="12.75" customHeight="1"/>
-    <row r="570" ht="12.75" customHeight="1"/>
-    <row r="571" ht="12.75" customHeight="1"/>
-    <row r="572" ht="12.75" customHeight="1"/>
-    <row r="573" ht="12.75" customHeight="1"/>
-    <row r="574" ht="12.75" customHeight="1"/>
-    <row r="575" ht="12.75" customHeight="1"/>
-    <row r="576" ht="12.75" customHeight="1"/>
-    <row r="577" ht="12.75" customHeight="1"/>
-    <row r="578" ht="12.75" customHeight="1"/>
-    <row r="579" ht="12.75" customHeight="1"/>
-    <row r="580" ht="12.75" customHeight="1"/>
-    <row r="581" ht="12.75" customHeight="1"/>
-    <row r="582" ht="12.75" customHeight="1"/>
-    <row r="583" ht="12.75" customHeight="1"/>
-    <row r="584" ht="12.75" customHeight="1"/>
-    <row r="585" ht="12.75" customHeight="1"/>
-    <row r="586" ht="12.75" customHeight="1"/>
-    <row r="587" ht="12.75" customHeight="1"/>
-    <row r="588" ht="12.75" customHeight="1"/>
-    <row r="589" ht="12.75" customHeight="1"/>
-    <row r="590" ht="12.75" customHeight="1"/>
-    <row r="591" ht="12.75" customHeight="1"/>
-    <row r="592" ht="12.75" customHeight="1"/>
-    <row r="593" ht="12.75" customHeight="1"/>
-    <row r="594" ht="12.75" customHeight="1"/>
-    <row r="595" ht="12.75" customHeight="1"/>
-    <row r="596" ht="12.75" customHeight="1"/>
-    <row r="597" ht="12.75" customHeight="1"/>
-    <row r="598" ht="12.75" customHeight="1"/>
-    <row r="599" ht="12.75" customHeight="1"/>
-    <row r="600" ht="12.75" customHeight="1"/>
-    <row r="601" ht="12.75" customHeight="1"/>
-    <row r="602" ht="12.75" customHeight="1"/>
-    <row r="603" ht="12.75" customHeight="1"/>
-    <row r="604" ht="12.75" customHeight="1"/>
-    <row r="605" ht="12.75" customHeight="1"/>
-    <row r="606" ht="12.75" customHeight="1"/>
-    <row r="607" ht="12.75" customHeight="1"/>
-    <row r="608" ht="12.75" customHeight="1"/>
-    <row r="609" ht="12.75" customHeight="1"/>
-    <row r="610" ht="12.75" customHeight="1"/>
-    <row r="611" ht="12.75" customHeight="1"/>
-    <row r="612" ht="12.75" customHeight="1"/>
-    <row r="613" ht="12.75" customHeight="1"/>
-    <row r="614" ht="12.75" customHeight="1"/>
-    <row r="615" ht="12.75" customHeight="1"/>
-    <row r="616" ht="12.75" customHeight="1"/>
-    <row r="617" ht="12.75" customHeight="1"/>
-    <row r="618" ht="12.75" customHeight="1"/>
-    <row r="619" ht="12.75" customHeight="1"/>
-    <row r="620" ht="12.75" customHeight="1"/>
-    <row r="621" ht="12.75" customHeight="1"/>
-    <row r="622" ht="12.75" customHeight="1"/>
-    <row r="623" ht="12.75" customHeight="1"/>
-    <row r="624" ht="12.75" customHeight="1"/>
-    <row r="625" ht="12.75" customHeight="1"/>
-    <row r="626" ht="12.75" customHeight="1"/>
-    <row r="627" ht="12.75" customHeight="1"/>
-    <row r="628" ht="12.75" customHeight="1"/>
-    <row r="629" ht="12.75" customHeight="1"/>
-    <row r="630" ht="12.75" customHeight="1"/>
-    <row r="631" ht="12.75" customHeight="1"/>
-    <row r="632" ht="12.75" customHeight="1"/>
-    <row r="633" ht="12.75" customHeight="1"/>
-    <row r="634" ht="12.75" customHeight="1"/>
-    <row r="635" ht="12.75" customHeight="1"/>
-    <row r="636" ht="12.75" customHeight="1"/>
-    <row r="637" ht="12.75" customHeight="1"/>
-    <row r="638" ht="12.75" customHeight="1"/>
-    <row r="639" ht="12.75" customHeight="1"/>
-    <row r="640" ht="12.75" customHeight="1"/>
-    <row r="641" ht="12.75" customHeight="1"/>
-    <row r="642" ht="12.75" customHeight="1"/>
-    <row r="643" ht="12.75" customHeight="1"/>
-    <row r="644" ht="12.75" customHeight="1"/>
-    <row r="645" ht="12.75" customHeight="1"/>
-    <row r="646" ht="12.75" customHeight="1"/>
-    <row r="647" ht="12.75" customHeight="1"/>
-    <row r="648" ht="12.75" customHeight="1"/>
-    <row r="649" ht="12.75" customHeight="1"/>
-    <row r="650" ht="12.75" customHeight="1"/>
-    <row r="651" ht="12.75" customHeight="1"/>
-    <row r="652" ht="12.75" customHeight="1"/>
-    <row r="653" ht="12.75" customHeight="1"/>
-    <row r="654" ht="12.75" customHeight="1"/>
-    <row r="655" ht="12.75" customHeight="1"/>
-    <row r="656" ht="12.75" customHeight="1"/>
-    <row r="657" ht="12.75" customHeight="1"/>
-    <row r="658" ht="12.75" customHeight="1"/>
-    <row r="659" ht="12.75" customHeight="1"/>
-    <row r="660" ht="12.75" customHeight="1"/>
-    <row r="661" ht="12.75" customHeight="1"/>
-    <row r="662" ht="12.75" customHeight="1"/>
-    <row r="663" ht="12.75" customHeight="1"/>
-    <row r="664" ht="12.75" customHeight="1"/>
-    <row r="665" ht="12.75" customHeight="1"/>
-    <row r="666" ht="12.75" customHeight="1"/>
-    <row r="667" ht="12.75" customHeight="1"/>
-    <row r="668" ht="12.75" customHeight="1"/>
-    <row r="669" ht="12.75" customHeight="1"/>
-    <row r="670" ht="12.75" customHeight="1"/>
-    <row r="671" ht="12.75" customHeight="1"/>
-    <row r="672" ht="12.75" customHeight="1"/>
-    <row r="673" ht="12.75" customHeight="1"/>
-    <row r="674" ht="12.75" customHeight="1"/>
-    <row r="675" ht="12.75" customHeight="1"/>
-    <row r="676" ht="12.75" customHeight="1"/>
-    <row r="677" ht="12.75" customHeight="1"/>
-    <row r="678" ht="12.75" customHeight="1"/>
-    <row r="679" ht="12.75" customHeight="1"/>
-    <row r="680" ht="12.75" customHeight="1"/>
-    <row r="681" ht="12.75" customHeight="1"/>
-    <row r="682" ht="12.75" customHeight="1"/>
-    <row r="683" ht="12.75" customHeight="1"/>
-    <row r="684" ht="12.75" customHeight="1"/>
-    <row r="685" ht="12.75" customHeight="1"/>
-    <row r="686" ht="12.75" customHeight="1"/>
-    <row r="687" ht="12.75" customHeight="1"/>
-    <row r="688" ht="12.75" customHeight="1"/>
-    <row r="689" ht="12.75" customHeight="1"/>
-    <row r="690" ht="12.75" customHeight="1"/>
-    <row r="691" ht="12.75" customHeight="1"/>
-    <row r="692" ht="12.75" customHeight="1"/>
-    <row r="693" ht="12.75" customHeight="1"/>
-    <row r="694" ht="12.75" customHeight="1"/>
-    <row r="695" ht="12.75" customHeight="1"/>
-    <row r="696" ht="12.75" customHeight="1"/>
-    <row r="697" ht="12.75" customHeight="1"/>
-    <row r="698" ht="12.75" customHeight="1"/>
-    <row r="699" ht="12.75" customHeight="1"/>
-    <row r="700" ht="12.75" customHeight="1"/>
-    <row r="701" ht="12.75" customHeight="1"/>
-    <row r="702" ht="12.75" customHeight="1"/>
-    <row r="703" ht="12.75" customHeight="1"/>
-    <row r="704" ht="12.75" customHeight="1"/>
-    <row r="705" ht="12.75" customHeight="1"/>
-    <row r="706" ht="12.75" customHeight="1"/>
-    <row r="707" ht="12.75" customHeight="1"/>
-    <row r="708" ht="12.75" customHeight="1"/>
-    <row r="709" ht="12.75" customHeight="1"/>
-    <row r="710" ht="12.75" customHeight="1"/>
-    <row r="711" ht="12.75" customHeight="1"/>
-    <row r="712" ht="12.75" customHeight="1"/>
-    <row r="713" ht="12.75" customHeight="1"/>
-    <row r="714" ht="12.75" customHeight="1"/>
-    <row r="715" ht="12.75" customHeight="1"/>
-    <row r="716" ht="12.75" customHeight="1"/>
-    <row r="717" ht="12.75" customHeight="1"/>
-    <row r="718" ht="12.75" customHeight="1"/>
-    <row r="719" ht="12.75" customHeight="1"/>
-    <row r="720" ht="12.75" customHeight="1"/>
-    <row r="721" ht="12.75" customHeight="1"/>
-    <row r="722" ht="12.75" customHeight="1"/>
-    <row r="723" ht="12.75" customHeight="1"/>
-    <row r="724" ht="12.75" customHeight="1"/>
-    <row r="725" ht="12.75" customHeight="1"/>
-    <row r="726" ht="12.75" customHeight="1"/>
-    <row r="727" ht="12.75" customHeight="1"/>
-    <row r="728" ht="12.75" customHeight="1"/>
-    <row r="729" ht="12.75" customHeight="1"/>
-    <row r="730" ht="12.75" customHeight="1"/>
-    <row r="731" ht="12.75" customHeight="1"/>
-    <row r="732" ht="12.75" customHeight="1"/>
-    <row r="733" ht="12.75" customHeight="1"/>
-    <row r="734" ht="12.75" customHeight="1"/>
-    <row r="735" ht="12.75" customHeight="1"/>
-    <row r="736" ht="12.75" customHeight="1"/>
-    <row r="737" ht="12.75" customHeight="1"/>
-    <row r="738" ht="12.75" customHeight="1"/>
-    <row r="739" ht="12.75" customHeight="1"/>
-    <row r="740" ht="12.75" customHeight="1"/>
-    <row r="741" ht="12.75" customHeight="1"/>
-    <row r="742" ht="12.75" customHeight="1"/>
-    <row r="743" ht="12.75" customHeight="1"/>
-    <row r="744" ht="12.75" customHeight="1"/>
-    <row r="745" ht="12.75" customHeight="1"/>
-    <row r="746" ht="12.75" customHeight="1"/>
-    <row r="747" ht="12.75" customHeight="1"/>
-    <row r="748" ht="12.75" customHeight="1"/>
-    <row r="749" ht="12.75" customHeight="1"/>
-    <row r="750" ht="12.75" customHeight="1"/>
-    <row r="751" ht="12.75" customHeight="1"/>
-    <row r="752" ht="12.75" customHeight="1"/>
-    <row r="753" ht="12.75" customHeight="1"/>
-    <row r="754" ht="12.75" customHeight="1"/>
-    <row r="755" ht="12.75" customHeight="1"/>
-    <row r="756" ht="12.75" customHeight="1"/>
-    <row r="757" ht="12.75" customHeight="1"/>
-    <row r="758" ht="12.75" customHeight="1"/>
-    <row r="759" ht="12.75" customHeight="1"/>
-    <row r="760" ht="12.75" customHeight="1"/>
-    <row r="761" ht="12.75" customHeight="1"/>
-    <row r="762" ht="12.75" customHeight="1"/>
-    <row r="763" ht="12.75" customHeight="1"/>
-    <row r="764" ht="12.75" customHeight="1"/>
-    <row r="765" ht="12.75" customHeight="1"/>
-    <row r="766" ht="12.75" customHeight="1"/>
-    <row r="767" ht="12.75" customHeight="1"/>
-    <row r="768" ht="12.75" customHeight="1"/>
-    <row r="769" ht="12.75" customHeight="1"/>
-    <row r="770" ht="12.75" customHeight="1"/>
-    <row r="771" ht="12.75" customHeight="1"/>
-    <row r="772" ht="12.75" customHeight="1"/>
-    <row r="773" ht="12.75" customHeight="1"/>
-    <row r="774" ht="12.75" customHeight="1"/>
-    <row r="775" ht="12.75" customHeight="1"/>
-    <row r="776" ht="12.75" customHeight="1"/>
-    <row r="777" ht="12.75" customHeight="1"/>
-    <row r="778" ht="12.75" customHeight="1"/>
-    <row r="779" ht="12.75" customHeight="1"/>
-    <row r="780" ht="12.75" customHeight="1"/>
-    <row r="781" ht="12.75" customHeight="1"/>
-    <row r="782" ht="12.75" customHeight="1"/>
-    <row r="783" ht="12.75" customHeight="1"/>
-    <row r="784" ht="12.75" customHeight="1"/>
-    <row r="785" ht="12.75" customHeight="1"/>
-    <row r="786" ht="12.75" customHeight="1"/>
-    <row r="787" ht="12.75" customHeight="1"/>
-    <row r="788" ht="12.75" customHeight="1"/>
-    <row r="789" ht="12.75" customHeight="1"/>
-    <row r="790" ht="12.75" customHeight="1"/>
-    <row r="791" ht="12.75" customHeight="1"/>
-    <row r="792" ht="12.75" customHeight="1"/>
-    <row r="793" ht="12.75" customHeight="1"/>
-    <row r="794" ht="12.75" customHeight="1"/>
-    <row r="795" ht="12.75" customHeight="1"/>
-    <row r="796" ht="12.75" customHeight="1"/>
-    <row r="797" ht="12.75" customHeight="1"/>
-    <row r="798" ht="12.75" customHeight="1"/>
-    <row r="799" ht="12.75" customHeight="1"/>
-    <row r="800" ht="12.75" customHeight="1"/>
-    <row r="801" ht="12.75" customHeight="1"/>
-    <row r="802" ht="12.75" customHeight="1"/>
-    <row r="803" ht="12.75" customHeight="1"/>
-    <row r="804" ht="12.75" customHeight="1"/>
-    <row r="805" ht="12.75" customHeight="1"/>
-    <row r="806" ht="12.75" customHeight="1"/>
-    <row r="807" ht="12.75" customHeight="1"/>
-    <row r="808" ht="12.75" customHeight="1"/>
-    <row r="809" ht="12.75" customHeight="1"/>
-    <row r="810" ht="12.75" customHeight="1"/>
-    <row r="811" ht="12.75" customHeight="1"/>
-    <row r="812" ht="12.75" customHeight="1"/>
-    <row r="813" ht="12.75" customHeight="1"/>
-    <row r="814" ht="12.75" customHeight="1"/>
-    <row r="815" ht="12.75" customHeight="1"/>
-    <row r="816" ht="12.75" customHeight="1"/>
-    <row r="817" ht="12.75" customHeight="1"/>
-    <row r="818" ht="12.75" customHeight="1"/>
-    <row r="819" ht="12.75" customHeight="1"/>
-    <row r="820" ht="12.75" customHeight="1"/>
-    <row r="821" ht="12.75" customHeight="1"/>
-    <row r="822" ht="12.75" customHeight="1"/>
-    <row r="823" ht="12.75" customHeight="1"/>
-    <row r="824" ht="12.75" customHeight="1"/>
-    <row r="825" ht="12.75" customHeight="1"/>
-    <row r="826" ht="12.75" customHeight="1"/>
-    <row r="827" ht="12.75" customHeight="1"/>
-    <row r="828" ht="12.75" customHeight="1"/>
-    <row r="829" ht="12.75" customHeight="1"/>
-    <row r="830" ht="12.75" customHeight="1"/>
-    <row r="831" ht="12.75" customHeight="1"/>
-    <row r="832" ht="12.75" customHeight="1"/>
-    <row r="833" ht="12.75" customHeight="1"/>
-    <row r="834" ht="12.75" customHeight="1"/>
-    <row r="835" ht="12.75" customHeight="1"/>
-    <row r="836" ht="12.75" customHeight="1"/>
-    <row r="837" ht="12.75" customHeight="1"/>
-    <row r="838" ht="12.75" customHeight="1"/>
-    <row r="839" ht="12.75" customHeight="1"/>
-    <row r="840" ht="12.75" customHeight="1"/>
-    <row r="841" ht="12.75" customHeight="1"/>
-    <row r="842" ht="12.75" customHeight="1"/>
-    <row r="843" ht="12.75" customHeight="1"/>
-    <row r="844" ht="12.75" customHeight="1"/>
-    <row r="845" ht="12.75" customHeight="1"/>
-    <row r="846" ht="12.75" customHeight="1"/>
-    <row r="847" ht="12.75" customHeight="1"/>
-    <row r="848" ht="12.75" customHeight="1"/>
-    <row r="849" ht="12.75" customHeight="1"/>
-    <row r="850" ht="12.75" customHeight="1"/>
-    <row r="851" ht="12.75" customHeight="1"/>
-    <row r="852" ht="12.75" customHeight="1"/>
-    <row r="853" ht="12.75" customHeight="1"/>
-    <row r="854" ht="12.75" customHeight="1"/>
-    <row r="855" ht="12.75" customHeight="1"/>
-    <row r="856" ht="12.75" customHeight="1"/>
-    <row r="857" ht="12.75" customHeight="1"/>
-    <row r="858" ht="12.75" customHeight="1"/>
-    <row r="859" ht="12.75" customHeight="1"/>
-    <row r="860" ht="12.75" customHeight="1"/>
-    <row r="861" ht="12.75" customHeight="1"/>
-    <row r="862" ht="12.75" customHeight="1"/>
-    <row r="863" ht="12.75" customHeight="1"/>
-    <row r="864" ht="12.75" customHeight="1"/>
-    <row r="865" ht="12.75" customHeight="1"/>
-    <row r="866" ht="12.75" customHeight="1"/>
-    <row r="867" ht="12.75" customHeight="1"/>
-    <row r="868" ht="12.75" customHeight="1"/>
-    <row r="869" ht="12.75" customHeight="1"/>
-    <row r="870" ht="12.75" customHeight="1"/>
-    <row r="871" ht="12.75" customHeight="1"/>
-    <row r="872" ht="12.75" customHeight="1"/>
-    <row r="873" ht="12.75" customHeight="1"/>
-    <row r="874" ht="12.75" customHeight="1"/>
-    <row r="875" ht="12.75" customHeight="1"/>
-    <row r="876" ht="12.75" customHeight="1"/>
-    <row r="877" ht="12.75" customHeight="1"/>
-    <row r="878" ht="12.75" customHeight="1"/>
-    <row r="879" ht="12.75" customHeight="1"/>
-    <row r="880" ht="12.75" customHeight="1"/>
-    <row r="881" ht="12.75" customHeight="1"/>
-    <row r="882" ht="12.75" customHeight="1"/>
-    <row r="883" ht="12.75" customHeight="1"/>
-    <row r="884" ht="12.75" customHeight="1"/>
-    <row r="885" ht="12.75" customHeight="1"/>
-    <row r="886" ht="12.75" customHeight="1"/>
-    <row r="887" ht="12.75" customHeight="1"/>
-    <row r="888" ht="12.75" customHeight="1"/>
-    <row r="889" ht="12.75" customHeight="1"/>
-    <row r="890" ht="12.75" customHeight="1"/>
-    <row r="891" ht="12.75" customHeight="1"/>
-    <row r="892" ht="12.75" customHeight="1"/>
-    <row r="893" ht="12.75" customHeight="1"/>
-    <row r="894" ht="12.75" customHeight="1"/>
-    <row r="895" ht="12.75" customHeight="1"/>
-    <row r="896" ht="12.75" customHeight="1"/>
-    <row r="897" ht="12.75" customHeight="1"/>
-    <row r="898" ht="12.75" customHeight="1"/>
-    <row r="899" ht="12.75" customHeight="1"/>
-    <row r="900" ht="12.75" customHeight="1"/>
-    <row r="901" ht="12.75" customHeight="1"/>
-    <row r="902" ht="12.75" customHeight="1"/>
-    <row r="903" ht="12.75" customHeight="1"/>
-    <row r="904" ht="12.75" customHeight="1"/>
-    <row r="905" ht="12.75" customHeight="1"/>
-    <row r="906" ht="12.75" customHeight="1"/>
-    <row r="907" ht="12.75" customHeight="1"/>
-    <row r="908" ht="12.75" customHeight="1"/>
-    <row r="909" ht="12.75" customHeight="1"/>
-    <row r="910" ht="12.75" customHeight="1"/>
-    <row r="911" ht="12.75" customHeight="1"/>
-    <row r="912" ht="12.75" customHeight="1"/>
-    <row r="913" ht="12.75" customHeight="1"/>
-    <row r="914" ht="12.75" customHeight="1"/>
-    <row r="915" ht="12.75" customHeight="1"/>
-    <row r="916" ht="12.75" customHeight="1"/>
-    <row r="917" ht="12.75" customHeight="1"/>
-    <row r="918" ht="12.75" customHeight="1"/>
-    <row r="919" ht="12.75" customHeight="1"/>
-    <row r="920" ht="12.75" customHeight="1"/>
-    <row r="921" ht="12.75" customHeight="1"/>
-    <row r="922" ht="12.75" customHeight="1"/>
-    <row r="923" ht="12.75" customHeight="1"/>
-    <row r="924" ht="12.75" customHeight="1"/>
-    <row r="925" ht="12.75" customHeight="1"/>
-    <row r="926" ht="12.75" customHeight="1"/>
-    <row r="927" ht="12.75" customHeight="1"/>
-    <row r="928" ht="12.75" customHeight="1"/>
-    <row r="929" ht="12.75" customHeight="1"/>
-    <row r="930" ht="12.75" customHeight="1"/>
-    <row r="931" ht="12.75" customHeight="1"/>
-    <row r="932" ht="12.75" customHeight="1"/>
-    <row r="933" ht="12.75" customHeight="1"/>
-    <row r="934" ht="12.75" customHeight="1"/>
-    <row r="935" ht="12.75" customHeight="1"/>
-    <row r="936" ht="12.75" customHeight="1"/>
-    <row r="937" ht="12.75" customHeight="1"/>
-    <row r="938" ht="12.75" customHeight="1"/>
-    <row r="939" ht="12.75" customHeight="1"/>
-    <row r="940" ht="12.75" customHeight="1"/>
-    <row r="941" ht="12.75" customHeight="1"/>
-    <row r="942" ht="12.75" customHeight="1"/>
-    <row r="943" ht="12.75" customHeight="1"/>
-    <row r="944" ht="12.75" customHeight="1"/>
-    <row r="945" ht="12.75" customHeight="1"/>
-    <row r="946" ht="12.75" customHeight="1"/>
-    <row r="947" ht="12.75" customHeight="1"/>
-    <row r="948" ht="12.75" customHeight="1"/>
-    <row r="949" ht="12.75" customHeight="1"/>
-    <row r="950" ht="12.75" customHeight="1"/>
-    <row r="951" ht="12.75" customHeight="1"/>
-    <row r="952" ht="12.75" customHeight="1"/>
-    <row r="953" ht="12.75" customHeight="1"/>
-    <row r="954" ht="12.75" customHeight="1"/>
-    <row r="955" ht="12.75" customHeight="1"/>
-    <row r="956" ht="12.75" customHeight="1"/>
-    <row r="957" ht="12.75" customHeight="1"/>
-    <row r="958" ht="12.75" customHeight="1"/>
-    <row r="959" ht="12.75" customHeight="1"/>
-    <row r="960" ht="12.75" customHeight="1"/>
-    <row r="961" ht="12.75" customHeight="1"/>
-    <row r="962" ht="12.75" customHeight="1"/>
-    <row r="963" ht="12.75" customHeight="1"/>
-    <row r="964" ht="12.75" customHeight="1"/>
-    <row r="965" ht="12.75" customHeight="1"/>
-    <row r="966" ht="12.75" customHeight="1"/>
-    <row r="967" ht="12.75" customHeight="1"/>
-    <row r="968" ht="12.75" customHeight="1"/>
-    <row r="969" ht="12.75" customHeight="1"/>
-    <row r="970" ht="12.75" customHeight="1"/>
-    <row r="971" ht="12.75" customHeight="1"/>
-    <row r="972" ht="12.75" customHeight="1"/>
-    <row r="973" ht="12.75" customHeight="1"/>
-    <row r="974" ht="12.75" customHeight="1"/>
-    <row r="975" ht="12.75" customHeight="1"/>
-    <row r="976" ht="12.75" customHeight="1"/>
-    <row r="977" ht="12.75" customHeight="1"/>
-    <row r="978" ht="12.75" customHeight="1"/>
-    <row r="979" ht="12.75" customHeight="1"/>
-    <row r="980" ht="12.75" customHeight="1"/>
-    <row r="981" ht="12.75" customHeight="1"/>
-    <row r="982" ht="12.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B138:B140"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B112:B114"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z1000"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="26" width="8.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" ht="12.75" customHeight="1">
-      <c r="E1" s="299"/>
-    </row>
-    <row r="2" spans="1:26" ht="12.75" customHeight="1">
-      <c r="E2" s="299"/>
-    </row>
-    <row r="3" spans="1:26" ht="13.5" customHeight="1">
-      <c r="B3" s="359"/>
-      <c r="C3" s="360"/>
-      <c r="D3" s="360"/>
-      <c r="E3" s="361"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-    </row>
-    <row r="4" spans="1:26" ht="45.75" customHeight="1">
-      <c r="B4" s="345"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="347"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
-    </row>
-    <row r="5" spans="1:26" ht="44.25" customHeight="1">
-      <c r="B5" s="301"/>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-    </row>
-    <row r="6" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A6" s="303"/>
-      <c r="B6" s="304"/>
-      <c r="C6" s="305"/>
-      <c r="D6" s="306"/>
-      <c r="E6" s="304"/>
-      <c r="F6" s="303"/>
-      <c r="G6" s="303"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
-      <c r="M6" s="303"/>
-      <c r="N6" s="303"/>
-      <c r="O6" s="303"/>
-      <c r="P6" s="303"/>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="303"/>
-      <c r="U6" s="303"/>
-      <c r="V6" s="303"/>
-      <c r="W6" s="303"/>
-      <c r="X6" s="303"/>
-      <c r="Y6" s="303"/>
-      <c r="Z6" s="303"/>
-    </row>
-    <row r="7" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A7" s="303"/>
-      <c r="B7" s="304"/>
-      <c r="C7" s="307"/>
-      <c r="D7" s="308"/>
-      <c r="E7" s="304"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="303"/>
-      <c r="M7" s="303"/>
-      <c r="N7" s="303"/>
-      <c r="O7" s="303"/>
-      <c r="P7" s="303"/>
-      <c r="Q7" s="303"/>
-      <c r="R7" s="303"/>
-      <c r="S7" s="303"/>
-      <c r="T7" s="303"/>
-      <c r="U7" s="303"/>
-      <c r="V7" s="303"/>
-      <c r="W7" s="303"/>
-      <c r="X7" s="303"/>
-      <c r="Y7" s="303"/>
-      <c r="Z7" s="303"/>
-    </row>
-    <row r="8" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A8" s="309"/>
-      <c r="B8" s="304"/>
-      <c r="C8" s="307"/>
-      <c r="D8" s="308"/>
-      <c r="E8" s="304"/>
-      <c r="F8" s="309"/>
-      <c r="G8" s="309"/>
-      <c r="H8" s="309"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="309"/>
-      <c r="K8" s="309"/>
-      <c r="L8" s="309"/>
-      <c r="M8" s="309"/>
-      <c r="N8" s="309"/>
-      <c r="O8" s="309"/>
-      <c r="P8" s="309"/>
-      <c r="Q8" s="309"/>
-      <c r="R8" s="309"/>
-      <c r="S8" s="309"/>
-      <c r="T8" s="309"/>
-      <c r="U8" s="309"/>
-      <c r="V8" s="309"/>
-      <c r="W8" s="309"/>
-      <c r="X8" s="309"/>
-      <c r="Y8" s="309"/>
-      <c r="Z8" s="309"/>
-    </row>
-    <row r="9" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A9" s="309"/>
-      <c r="B9" s="304"/>
-      <c r="C9" s="307"/>
-      <c r="D9" s="308"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="309"/>
-      <c r="G9" s="309"/>
-      <c r="H9" s="309"/>
-      <c r="I9" s="309"/>
-      <c r="J9" s="309"/>
-      <c r="K9" s="309"/>
-      <c r="L9" s="309"/>
-      <c r="M9" s="309"/>
-      <c r="N9" s="309"/>
-      <c r="O9" s="309"/>
-      <c r="P9" s="309"/>
-      <c r="Q9" s="309"/>
-      <c r="R9" s="309"/>
-      <c r="S9" s="309"/>
-      <c r="T9" s="309"/>
-      <c r="U9" s="309"/>
-      <c r="V9" s="309"/>
-      <c r="W9" s="309"/>
-      <c r="X9" s="309"/>
-      <c r="Y9" s="309"/>
-      <c r="Z9" s="309"/>
-    </row>
-    <row r="10" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A10" s="309"/>
-      <c r="B10" s="304"/>
-      <c r="C10" s="307"/>
-      <c r="D10" s="308"/>
-      <c r="E10" s="304"/>
-      <c r="F10" s="309"/>
-      <c r="G10" s="309"/>
-      <c r="H10" s="309"/>
-      <c r="I10" s="309"/>
-      <c r="J10" s="309"/>
-      <c r="K10" s="309"/>
-      <c r="L10" s="309"/>
-      <c r="M10" s="309"/>
-      <c r="N10" s="309"/>
-      <c r="O10" s="309"/>
-      <c r="P10" s="309"/>
-      <c r="Q10" s="309"/>
-      <c r="R10" s="309"/>
-      <c r="S10" s="309"/>
-      <c r="T10" s="309"/>
-      <c r="U10" s="309"/>
-      <c r="V10" s="309"/>
-      <c r="W10" s="309"/>
-      <c r="X10" s="309"/>
-      <c r="Y10" s="309"/>
-      <c r="Z10" s="309"/>
-    </row>
-    <row r="11" spans="1:26" ht="27.75" customHeight="1">
-      <c r="A11" s="309"/>
-      <c r="B11" s="304"/>
-      <c r="C11" s="307"/>
-      <c r="D11" s="308"/>
-      <c r="E11" s="304"/>
-      <c r="F11" s="309"/>
-      <c r="G11" s="309"/>
-      <c r="H11" s="309"/>
-      <c r="I11" s="309"/>
-      <c r="J11" s="309"/>
-      <c r="K11" s="309"/>
-      <c r="L11" s="309"/>
-      <c r="M11" s="309"/>
-      <c r="N11" s="309"/>
-      <c r="O11" s="309"/>
-      <c r="P11" s="309"/>
-      <c r="Q11" s="309"/>
-      <c r="R11" s="309"/>
-      <c r="S11" s="309"/>
-      <c r="T11" s="309"/>
-      <c r="U11" s="309"/>
-      <c r="V11" s="309"/>
-      <c r="W11" s="309"/>
-      <c r="X11" s="309"/>
-      <c r="Y11" s="309"/>
-      <c r="Z11" s="309"/>
-    </row>
-    <row r="12" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A12" s="309"/>
-      <c r="B12" s="304"/>
-      <c r="C12" s="307"/>
-      <c r="D12" s="308"/>
-      <c r="E12" s="304"/>
-      <c r="F12" s="309"/>
-      <c r="G12" s="309"/>
-      <c r="H12" s="309"/>
-      <c r="I12" s="309"/>
-      <c r="J12" s="309"/>
-      <c r="K12" s="309"/>
-      <c r="L12" s="309"/>
-      <c r="M12" s="309"/>
-      <c r="N12" s="309"/>
-      <c r="O12" s="309"/>
-      <c r="P12" s="309"/>
-      <c r="Q12" s="309"/>
-      <c r="R12" s="309"/>
-      <c r="S12" s="309"/>
-      <c r="T12" s="309"/>
-      <c r="U12" s="309"/>
-      <c r="V12" s="309"/>
-      <c r="W12" s="309"/>
-      <c r="X12" s="309"/>
-      <c r="Y12" s="309"/>
-      <c r="Z12" s="309"/>
-    </row>
-    <row r="13" spans="1:26" ht="29.25" customHeight="1">
-      <c r="A13" s="309"/>
-      <c r="B13" s="304"/>
-      <c r="C13" s="307"/>
-      <c r="D13" s="308"/>
-      <c r="E13" s="304"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="309"/>
-      <c r="H13" s="309"/>
-      <c r="I13" s="309"/>
-      <c r="J13" s="309"/>
-      <c r="K13" s="309"/>
-      <c r="L13" s="309"/>
-      <c r="M13" s="309"/>
-      <c r="N13" s="309"/>
-      <c r="O13" s="309"/>
-      <c r="P13" s="309"/>
-      <c r="Q13" s="309"/>
-      <c r="R13" s="309"/>
-      <c r="S13" s="309"/>
-      <c r="T13" s="309"/>
-      <c r="U13" s="309"/>
-      <c r="V13" s="309"/>
-      <c r="W13" s="309"/>
-      <c r="X13" s="309"/>
-      <c r="Y13" s="309"/>
-      <c r="Z13" s="309"/>
-    </row>
-    <row r="14" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A14" s="309"/>
-      <c r="B14" s="304"/>
-      <c r="C14" s="307"/>
-      <c r="D14" s="308"/>
-      <c r="E14" s="304"/>
-      <c r="F14" s="309"/>
-      <c r="G14" s="309"/>
-      <c r="H14" s="309"/>
-      <c r="I14" s="309"/>
-      <c r="J14" s="309"/>
-      <c r="K14" s="309"/>
-      <c r="L14" s="309"/>
-      <c r="M14" s="309"/>
-      <c r="N14" s="309"/>
-      <c r="O14" s="309"/>
-      <c r="P14" s="309"/>
-      <c r="Q14" s="309"/>
-      <c r="R14" s="309"/>
-      <c r="S14" s="309"/>
-      <c r="T14" s="309"/>
-      <c r="U14" s="309"/>
-      <c r="V14" s="309"/>
-      <c r="W14" s="309"/>
-      <c r="X14" s="309"/>
-      <c r="Y14" s="309"/>
-      <c r="Z14" s="309"/>
-    </row>
-    <row r="15" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A15" s="309"/>
-      <c r="B15" s="304"/>
-      <c r="C15" s="307"/>
-      <c r="D15" s="308"/>
-      <c r="E15" s="304"/>
-      <c r="F15" s="309"/>
-      <c r="G15" s="309"/>
-      <c r="H15" s="309"/>
-      <c r="I15" s="309"/>
-      <c r="J15" s="309"/>
-      <c r="K15" s="309"/>
-      <c r="L15" s="309"/>
-      <c r="M15" s="309"/>
-      <c r="N15" s="309"/>
-      <c r="O15" s="309"/>
-      <c r="P15" s="309"/>
-      <c r="Q15" s="309"/>
-      <c r="R15" s="309"/>
-      <c r="S15" s="309"/>
-      <c r="T15" s="309"/>
-      <c r="U15" s="309"/>
-      <c r="V15" s="309"/>
-      <c r="W15" s="309"/>
-      <c r="X15" s="309"/>
-      <c r="Y15" s="309"/>
-      <c r="Z15" s="309"/>
-    </row>
-    <row r="16" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A16" s="309"/>
-      <c r="B16" s="304"/>
-      <c r="C16" s="307"/>
-      <c r="D16" s="308"/>
-      <c r="E16" s="304"/>
-      <c r="F16" s="309"/>
-      <c r="G16" s="309"/>
-      <c r="H16" s="309"/>
-      <c r="I16" s="309"/>
-      <c r="J16" s="309"/>
-      <c r="K16" s="309"/>
-      <c r="L16" s="309"/>
-      <c r="M16" s="309"/>
-      <c r="N16" s="309"/>
-      <c r="O16" s="309"/>
-      <c r="P16" s="309"/>
-      <c r="Q16" s="309"/>
-      <c r="R16" s="309"/>
-      <c r="S16" s="309"/>
-      <c r="T16" s="309"/>
-      <c r="U16" s="309"/>
-      <c r="V16" s="309"/>
-      <c r="W16" s="309"/>
-      <c r="X16" s="309"/>
-      <c r="Y16" s="309"/>
-      <c r="Z16" s="309"/>
-    </row>
-    <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="310"/>
-      <c r="E17" s="299"/>
-    </row>
-    <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="310"/>
-      <c r="E18" s="299"/>
-    </row>
-    <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="310"/>
-      <c r="E19" s="299"/>
-    </row>
-    <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="310"/>
-      <c r="E20" s="299"/>
-    </row>
-    <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="310"/>
-      <c r="E21" s="299"/>
-    </row>
-    <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="310"/>
-      <c r="E22" s="299"/>
-    </row>
-    <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="310"/>
-      <c r="E23" s="299"/>
-    </row>
-    <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="310"/>
-      <c r="E24" s="299"/>
-    </row>
-    <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="310"/>
-      <c r="E25" s="299"/>
-    </row>
-    <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="310"/>
-      <c r="E26" s="299"/>
-    </row>
-    <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="310"/>
-      <c r="E27" s="299"/>
-    </row>
-    <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="310"/>
-      <c r="E28" s="299"/>
-    </row>
-    <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="310"/>
-      <c r="E29" s="299"/>
-    </row>
-    <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="310"/>
-      <c r="E30" s="299"/>
-    </row>
-    <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="310"/>
-      <c r="E31" s="299"/>
-    </row>
-    <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="310"/>
-      <c r="E32" s="299"/>
-    </row>
-    <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="310"/>
-      <c r="E33" s="299"/>
-    </row>
-    <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="310"/>
-      <c r="E34" s="299"/>
-    </row>
-    <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="310"/>
-      <c r="E35" s="299"/>
-    </row>
-    <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="310"/>
-      <c r="E36" s="299"/>
-    </row>
-    <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="310"/>
-      <c r="E37" s="299"/>
-    </row>
-    <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="310"/>
-      <c r="E38" s="299"/>
-    </row>
-    <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="310"/>
-      <c r="E39" s="299"/>
-    </row>
-    <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="310"/>
-      <c r="E40" s="299"/>
-    </row>
-    <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="310"/>
-      <c r="E41" s="299"/>
-    </row>
-    <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="310"/>
-      <c r="E42" s="299"/>
-    </row>
-    <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="310"/>
-      <c r="E43" s="299"/>
-    </row>
-    <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="310"/>
-      <c r="E44" s="299"/>
-    </row>
-    <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="310"/>
-      <c r="E45" s="299"/>
-    </row>
-    <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="310"/>
-      <c r="E46" s="299"/>
-    </row>
-    <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="310"/>
-      <c r="E47" s="299"/>
-    </row>
-    <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="310"/>
-      <c r="E48" s="299"/>
-    </row>
-    <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="310"/>
-      <c r="E49" s="299"/>
-    </row>
-    <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E50" s="299"/>
-    </row>
-    <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E51" s="299"/>
-    </row>
-    <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E52" s="299"/>
-    </row>
-    <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E53" s="299"/>
-    </row>
-    <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E54" s="299"/>
-    </row>
-    <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E55" s="299"/>
-    </row>
-    <row r="56" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E56" s="299"/>
-    </row>
-    <row r="57" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E57" s="299"/>
-    </row>
-    <row r="58" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E58" s="299"/>
-    </row>
-    <row r="59" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E59" s="299"/>
-    </row>
-    <row r="60" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E60" s="299"/>
-    </row>
-    <row r="61" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E61" s="299"/>
-    </row>
-    <row r="62" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E62" s="299"/>
-    </row>
-    <row r="63" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E63" s="299"/>
-    </row>
-    <row r="64" spans="2:5" ht="12.75" customHeight="1">
-      <c r="E64" s="299"/>
-    </row>
-    <row r="65" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E65" s="299"/>
-    </row>
-    <row r="66" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E66" s="299"/>
-    </row>
-    <row r="67" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E67" s="299"/>
-    </row>
-    <row r="68" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E68" s="299"/>
-    </row>
-    <row r="69" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E69" s="299"/>
-    </row>
-    <row r="70" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E70" s="299"/>
-    </row>
-    <row r="71" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E71" s="299"/>
-    </row>
-    <row r="72" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E72" s="299"/>
-    </row>
-    <row r="73" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E73" s="299"/>
-    </row>
-    <row r="74" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E74" s="299"/>
-    </row>
-    <row r="75" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E75" s="299"/>
-    </row>
-    <row r="76" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E76" s="299"/>
-    </row>
-    <row r="77" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E77" s="299"/>
-    </row>
-    <row r="78" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E78" s="299"/>
-    </row>
-    <row r="79" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E79" s="299"/>
-    </row>
-    <row r="80" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E80" s="299"/>
-    </row>
-    <row r="81" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E81" s="299"/>
-    </row>
-    <row r="82" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E82" s="299"/>
-    </row>
-    <row r="83" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E83" s="299"/>
-    </row>
-    <row r="84" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E84" s="299"/>
-    </row>
-    <row r="85" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E85" s="299"/>
-    </row>
-    <row r="86" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E86" s="299"/>
-    </row>
-    <row r="87" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E87" s="299"/>
-    </row>
-    <row r="88" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E88" s="299"/>
-    </row>
-    <row r="89" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E89" s="299"/>
-    </row>
-    <row r="90" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E90" s="299"/>
-    </row>
-    <row r="91" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E91" s="299"/>
-    </row>
-    <row r="92" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E92" s="299"/>
-    </row>
-    <row r="93" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E93" s="299"/>
-    </row>
-    <row r="94" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E94" s="299"/>
-    </row>
-    <row r="95" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E95" s="299"/>
-    </row>
-    <row r="96" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E96" s="299"/>
-    </row>
-    <row r="97" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E97" s="299"/>
-    </row>
-    <row r="98" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E98" s="299"/>
-    </row>
-    <row r="99" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E99" s="299"/>
-    </row>
-    <row r="100" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E100" s="299"/>
-    </row>
-    <row r="101" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E101" s="299"/>
-    </row>
-    <row r="102" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E102" s="299"/>
-    </row>
-    <row r="103" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E103" s="299"/>
-    </row>
-    <row r="104" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E104" s="299"/>
-    </row>
-    <row r="105" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E105" s="299"/>
-    </row>
-    <row r="106" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E106" s="299"/>
-    </row>
-    <row r="107" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E107" s="299"/>
-    </row>
-    <row r="108" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E108" s="299"/>
-    </row>
-    <row r="109" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E109" s="299"/>
-    </row>
-    <row r="110" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E110" s="299"/>
-    </row>
-    <row r="111" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E111" s="299"/>
-    </row>
-    <row r="112" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E112" s="299"/>
-    </row>
-    <row r="113" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E113" s="299"/>
-    </row>
-    <row r="114" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E114" s="299"/>
-    </row>
-    <row r="115" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E115" s="299"/>
-    </row>
-    <row r="116" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E116" s="299"/>
-    </row>
-    <row r="117" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E117" s="299"/>
-    </row>
-    <row r="118" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E118" s="299"/>
-    </row>
-    <row r="119" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E119" s="299"/>
-    </row>
-    <row r="120" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E120" s="299"/>
-    </row>
-    <row r="121" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E121" s="299"/>
-    </row>
-    <row r="122" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E122" s="299"/>
-    </row>
-    <row r="123" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E123" s="299"/>
-    </row>
-    <row r="124" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E124" s="299"/>
-    </row>
-    <row r="125" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E125" s="299"/>
-    </row>
-    <row r="126" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E126" s="299"/>
-    </row>
-    <row r="127" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E127" s="299"/>
-    </row>
-    <row r="128" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E128" s="299"/>
-    </row>
-    <row r="129" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E129" s="299"/>
-    </row>
-    <row r="130" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E130" s="299"/>
-    </row>
-    <row r="131" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E131" s="299"/>
-    </row>
-    <row r="132" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E132" s="299"/>
-    </row>
-    <row r="133" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E133" s="299"/>
-    </row>
-    <row r="134" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E134" s="299"/>
-    </row>
-    <row r="135" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E135" s="299"/>
-    </row>
-    <row r="136" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E136" s="299"/>
-    </row>
-    <row r="137" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E137" s="299"/>
-    </row>
-    <row r="138" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E138" s="299"/>
-    </row>
-    <row r="139" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E139" s="299"/>
-    </row>
-    <row r="140" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E140" s="299"/>
-    </row>
-    <row r="141" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E141" s="299"/>
-    </row>
-    <row r="142" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E142" s="299"/>
-    </row>
-    <row r="143" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E143" s="299"/>
-    </row>
-    <row r="144" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E144" s="299"/>
-    </row>
-    <row r="145" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E145" s="299"/>
-    </row>
-    <row r="146" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E146" s="299"/>
-    </row>
-    <row r="147" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E147" s="299"/>
-    </row>
-    <row r="148" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E148" s="299"/>
-    </row>
-    <row r="149" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E149" s="299"/>
-    </row>
-    <row r="150" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E150" s="299"/>
-    </row>
-    <row r="151" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E151" s="299"/>
-    </row>
-    <row r="152" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E152" s="299"/>
-    </row>
-    <row r="153" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E153" s="299"/>
-    </row>
-    <row r="154" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E154" s="299"/>
-    </row>
-    <row r="155" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E155" s="299"/>
-    </row>
-    <row r="156" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E156" s="299"/>
-    </row>
-    <row r="157" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E157" s="299"/>
-    </row>
-    <row r="158" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E158" s="299"/>
-    </row>
-    <row r="159" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E159" s="299"/>
-    </row>
-    <row r="160" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E160" s="299"/>
-    </row>
-    <row r="161" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E161" s="299"/>
-    </row>
-    <row r="162" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E162" s="299"/>
-    </row>
-    <row r="163" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E163" s="299"/>
-    </row>
-    <row r="164" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E164" s="299"/>
-    </row>
-    <row r="165" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E165" s="299"/>
-    </row>
-    <row r="166" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E166" s="299"/>
-    </row>
-    <row r="167" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E167" s="299"/>
-    </row>
-    <row r="168" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E168" s="299"/>
-    </row>
-    <row r="169" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E169" s="299"/>
-    </row>
-    <row r="170" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E170" s="299"/>
-    </row>
-    <row r="171" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E171" s="299"/>
-    </row>
-    <row r="172" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E172" s="299"/>
-    </row>
-    <row r="173" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E173" s="299"/>
-    </row>
-    <row r="174" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E174" s="299"/>
-    </row>
-    <row r="175" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E175" s="299"/>
-    </row>
-    <row r="176" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E176" s="299"/>
-    </row>
-    <row r="177" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E177" s="299"/>
-    </row>
-    <row r="178" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E178" s="299"/>
-    </row>
-    <row r="179" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E179" s="299"/>
-    </row>
-    <row r="180" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E180" s="299"/>
-    </row>
-    <row r="181" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E181" s="299"/>
-    </row>
-    <row r="182" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E182" s="299"/>
-    </row>
-    <row r="183" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E183" s="299"/>
-    </row>
-    <row r="184" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E184" s="299"/>
-    </row>
-    <row r="185" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E185" s="299"/>
-    </row>
-    <row r="186" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E186" s="299"/>
-    </row>
-    <row r="187" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E187" s="299"/>
-    </row>
-    <row r="188" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E188" s="299"/>
-    </row>
-    <row r="189" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E189" s="299"/>
-    </row>
-    <row r="190" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E190" s="299"/>
-    </row>
-    <row r="191" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E191" s="299"/>
-    </row>
-    <row r="192" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E192" s="299"/>
-    </row>
-    <row r="193" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E193" s="299"/>
-    </row>
-    <row r="194" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E194" s="299"/>
-    </row>
-    <row r="195" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E195" s="299"/>
-    </row>
-    <row r="196" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E196" s="299"/>
-    </row>
-    <row r="197" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E197" s="299"/>
-    </row>
-    <row r="198" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E198" s="299"/>
-    </row>
-    <row r="199" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E199" s="299"/>
-    </row>
-    <row r="200" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E200" s="299"/>
-    </row>
-    <row r="201" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E201" s="299"/>
-    </row>
-    <row r="202" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E202" s="299"/>
-    </row>
-    <row r="203" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E203" s="299"/>
-    </row>
-    <row r="204" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E204" s="299"/>
-    </row>
-    <row r="205" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E205" s="299"/>
-    </row>
-    <row r="206" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E206" s="299"/>
-    </row>
-    <row r="207" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E207" s="299"/>
-    </row>
-    <row r="208" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E208" s="299"/>
-    </row>
-    <row r="209" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E209" s="299"/>
-    </row>
-    <row r="210" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E210" s="299"/>
-    </row>
-    <row r="211" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E211" s="299"/>
-    </row>
-    <row r="212" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E212" s="299"/>
-    </row>
-    <row r="213" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E213" s="299"/>
-    </row>
-    <row r="214" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E214" s="299"/>
-    </row>
-    <row r="215" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E215" s="299"/>
-    </row>
-    <row r="216" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E216" s="299"/>
-    </row>
-    <row r="217" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E217" s="299"/>
-    </row>
-    <row r="218" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E218" s="299"/>
-    </row>
-    <row r="219" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E219" s="299"/>
-    </row>
-    <row r="220" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E220" s="299"/>
-    </row>
-    <row r="221" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E221" s="299"/>
-    </row>
-    <row r="222" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E222" s="299"/>
-    </row>
-    <row r="223" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E223" s="299"/>
-    </row>
-    <row r="224" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E224" s="299"/>
-    </row>
-    <row r="225" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E225" s="299"/>
-    </row>
-    <row r="226" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E226" s="299"/>
-    </row>
-    <row r="227" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E227" s="299"/>
-    </row>
-    <row r="228" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E228" s="299"/>
-    </row>
-    <row r="229" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E229" s="299"/>
-    </row>
-    <row r="230" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E230" s="299"/>
-    </row>
-    <row r="231" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E231" s="299"/>
-    </row>
-    <row r="232" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E232" s="299"/>
-    </row>
-    <row r="233" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E233" s="299"/>
-    </row>
-    <row r="234" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E234" s="299"/>
-    </row>
-    <row r="235" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E235" s="299"/>
-    </row>
-    <row r="236" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E236" s="299"/>
-    </row>
-    <row r="237" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E237" s="299"/>
-    </row>
-    <row r="238" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E238" s="299"/>
-    </row>
-    <row r="239" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E239" s="299"/>
-    </row>
-    <row r="240" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E240" s="299"/>
-    </row>
-    <row r="241" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E241" s="299"/>
-    </row>
-    <row r="242" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E242" s="299"/>
-    </row>
-    <row r="243" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E243" s="299"/>
-    </row>
-    <row r="244" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E244" s="299"/>
-    </row>
-    <row r="245" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E245" s="299"/>
-    </row>
-    <row r="246" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E246" s="299"/>
-    </row>
-    <row r="247" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E247" s="299"/>
-    </row>
-    <row r="248" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E248" s="299"/>
-    </row>
-    <row r="249" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E249" s="299"/>
-    </row>
-    <row r="250" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E250" s="299"/>
-    </row>
-    <row r="251" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E251" s="299"/>
-    </row>
-    <row r="252" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E252" s="299"/>
-    </row>
-    <row r="253" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E253" s="299"/>
-    </row>
-    <row r="254" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E254" s="299"/>
-    </row>
-    <row r="255" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E255" s="299"/>
-    </row>
-    <row r="256" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E256" s="299"/>
-    </row>
-    <row r="257" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E257" s="299"/>
-    </row>
-    <row r="258" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E258" s="299"/>
-    </row>
-    <row r="259" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E259" s="299"/>
-    </row>
-    <row r="260" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E260" s="299"/>
-    </row>
-    <row r="261" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E261" s="299"/>
-    </row>
-    <row r="262" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E262" s="299"/>
-    </row>
-    <row r="263" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E263" s="299"/>
-    </row>
-    <row r="264" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E264" s="299"/>
-    </row>
-    <row r="265" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E265" s="299"/>
-    </row>
-    <row r="266" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E266" s="299"/>
-    </row>
-    <row r="267" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E267" s="299"/>
-    </row>
-    <row r="268" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E268" s="299"/>
-    </row>
-    <row r="269" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E269" s="299"/>
-    </row>
-    <row r="270" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E270" s="299"/>
-    </row>
-    <row r="271" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E271" s="299"/>
-    </row>
-    <row r="272" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E272" s="299"/>
-    </row>
-    <row r="273" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E273" s="299"/>
-    </row>
-    <row r="274" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E274" s="299"/>
-    </row>
-    <row r="275" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E275" s="299"/>
-    </row>
-    <row r="276" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E276" s="299"/>
-    </row>
-    <row r="277" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E277" s="299"/>
-    </row>
-    <row r="278" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E278" s="299"/>
-    </row>
-    <row r="279" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E279" s="299"/>
-    </row>
-    <row r="280" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E280" s="299"/>
-    </row>
-    <row r="281" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E281" s="299"/>
-    </row>
-    <row r="282" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E282" s="299"/>
-    </row>
-    <row r="283" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E283" s="299"/>
-    </row>
-    <row r="284" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E284" s="299"/>
-    </row>
-    <row r="285" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E285" s="299"/>
-    </row>
-    <row r="286" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E286" s="299"/>
-    </row>
-    <row r="287" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E287" s="299"/>
-    </row>
-    <row r="288" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E288" s="299"/>
-    </row>
-    <row r="289" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E289" s="299"/>
-    </row>
-    <row r="290" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E290" s="299"/>
-    </row>
-    <row r="291" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E291" s="299"/>
-    </row>
-    <row r="292" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E292" s="299"/>
-    </row>
-    <row r="293" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E293" s="299"/>
-    </row>
-    <row r="294" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E294" s="299"/>
-    </row>
-    <row r="295" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E295" s="299"/>
-    </row>
-    <row r="296" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E296" s="299"/>
-    </row>
-    <row r="297" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E297" s="299"/>
-    </row>
-    <row r="298" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E298" s="299"/>
-    </row>
-    <row r="299" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E299" s="299"/>
-    </row>
-    <row r="300" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E300" s="299"/>
-    </row>
-    <row r="301" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E301" s="299"/>
-    </row>
-    <row r="302" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E302" s="299"/>
-    </row>
-    <row r="303" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E303" s="299"/>
-    </row>
-    <row r="304" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E304" s="299"/>
-    </row>
-    <row r="305" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E305" s="299"/>
-    </row>
-    <row r="306" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E306" s="299"/>
-    </row>
-    <row r="307" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E307" s="299"/>
-    </row>
-    <row r="308" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E308" s="299"/>
-    </row>
-    <row r="309" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E309" s="299"/>
-    </row>
-    <row r="310" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E310" s="299"/>
-    </row>
-    <row r="311" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E311" s="299"/>
-    </row>
-    <row r="312" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E312" s="299"/>
-    </row>
-    <row r="313" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E313" s="299"/>
-    </row>
-    <row r="314" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E314" s="299"/>
-    </row>
-    <row r="315" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E315" s="299"/>
-    </row>
-    <row r="316" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E316" s="299"/>
-    </row>
-    <row r="317" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E317" s="299"/>
-    </row>
-    <row r="318" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E318" s="299"/>
-    </row>
-    <row r="319" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E319" s="299"/>
-    </row>
-    <row r="320" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E320" s="299"/>
-    </row>
-    <row r="321" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E321" s="299"/>
-    </row>
-    <row r="322" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E322" s="299"/>
-    </row>
-    <row r="323" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E323" s="299"/>
-    </row>
-    <row r="324" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E324" s="299"/>
-    </row>
-    <row r="325" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E325" s="299"/>
-    </row>
-    <row r="326" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E326" s="299"/>
-    </row>
-    <row r="327" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E327" s="299"/>
-    </row>
-    <row r="328" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E328" s="299"/>
-    </row>
-    <row r="329" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E329" s="299"/>
-    </row>
-    <row r="330" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E330" s="299"/>
-    </row>
-    <row r="331" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E331" s="299"/>
-    </row>
-    <row r="332" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E332" s="299"/>
-    </row>
-    <row r="333" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E333" s="299"/>
-    </row>
-    <row r="334" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E334" s="299"/>
-    </row>
-    <row r="335" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E335" s="299"/>
-    </row>
-    <row r="336" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E336" s="299"/>
-    </row>
-    <row r="337" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E337" s="299"/>
-    </row>
-    <row r="338" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E338" s="299"/>
-    </row>
-    <row r="339" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E339" s="299"/>
-    </row>
-    <row r="340" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E340" s="299"/>
-    </row>
-    <row r="341" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E341" s="299"/>
-    </row>
-    <row r="342" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E342" s="299"/>
-    </row>
-    <row r="343" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E343" s="299"/>
-    </row>
-    <row r="344" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E344" s="299"/>
-    </row>
-    <row r="345" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E345" s="299"/>
-    </row>
-    <row r="346" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E346" s="299"/>
-    </row>
-    <row r="347" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E347" s="299"/>
-    </row>
-    <row r="348" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E348" s="299"/>
-    </row>
-    <row r="349" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E349" s="299"/>
-    </row>
-    <row r="350" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E350" s="299"/>
-    </row>
-    <row r="351" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E351" s="299"/>
-    </row>
-    <row r="352" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E352" s="299"/>
-    </row>
-    <row r="353" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E353" s="299"/>
-    </row>
-    <row r="354" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E354" s="299"/>
-    </row>
-    <row r="355" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E355" s="299"/>
-    </row>
-    <row r="356" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E356" s="299"/>
-    </row>
-    <row r="357" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E357" s="299"/>
-    </row>
-    <row r="358" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E358" s="299"/>
-    </row>
-    <row r="359" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E359" s="299"/>
-    </row>
-    <row r="360" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E360" s="299"/>
-    </row>
-    <row r="361" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E361" s="299"/>
-    </row>
-    <row r="362" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E362" s="299"/>
-    </row>
-    <row r="363" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E363" s="299"/>
-    </row>
-    <row r="364" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E364" s="299"/>
-    </row>
-    <row r="365" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E365" s="299"/>
-    </row>
-    <row r="366" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E366" s="299"/>
-    </row>
-    <row r="367" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E367" s="299"/>
-    </row>
-    <row r="368" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E368" s="299"/>
-    </row>
-    <row r="369" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E369" s="299"/>
-    </row>
-    <row r="370" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E370" s="299"/>
-    </row>
-    <row r="371" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E371" s="299"/>
-    </row>
-    <row r="372" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E372" s="299"/>
-    </row>
-    <row r="373" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E373" s="299"/>
-    </row>
-    <row r="374" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E374" s="299"/>
-    </row>
-    <row r="375" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E375" s="299"/>
-    </row>
-    <row r="376" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E376" s="299"/>
-    </row>
-    <row r="377" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E377" s="299"/>
-    </row>
-    <row r="378" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E378" s="299"/>
-    </row>
-    <row r="379" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E379" s="299"/>
-    </row>
-    <row r="380" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E380" s="299"/>
-    </row>
-    <row r="381" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E381" s="299"/>
-    </row>
-    <row r="382" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E382" s="299"/>
-    </row>
-    <row r="383" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E383" s="299"/>
-    </row>
-    <row r="384" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E384" s="299"/>
-    </row>
-    <row r="385" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E385" s="299"/>
-    </row>
-    <row r="386" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E386" s="299"/>
-    </row>
-    <row r="387" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E387" s="299"/>
-    </row>
-    <row r="388" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E388" s="299"/>
-    </row>
-    <row r="389" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E389" s="299"/>
-    </row>
-    <row r="390" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E390" s="299"/>
-    </row>
-    <row r="391" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E391" s="299"/>
-    </row>
-    <row r="392" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E392" s="299"/>
-    </row>
-    <row r="393" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E393" s="299"/>
-    </row>
-    <row r="394" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E394" s="299"/>
-    </row>
-    <row r="395" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E395" s="299"/>
-    </row>
-    <row r="396" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E396" s="299"/>
-    </row>
-    <row r="397" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E397" s="299"/>
-    </row>
-    <row r="398" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E398" s="299"/>
-    </row>
-    <row r="399" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E399" s="299"/>
-    </row>
-    <row r="400" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E400" s="299"/>
-    </row>
-    <row r="401" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E401" s="299"/>
-    </row>
-    <row r="402" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E402" s="299"/>
-    </row>
-    <row r="403" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E403" s="299"/>
-    </row>
-    <row r="404" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E404" s="299"/>
-    </row>
-    <row r="405" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E405" s="299"/>
-    </row>
-    <row r="406" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E406" s="299"/>
-    </row>
-    <row r="407" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E407" s="299"/>
-    </row>
-    <row r="408" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E408" s="299"/>
-    </row>
-    <row r="409" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E409" s="299"/>
-    </row>
-    <row r="410" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E410" s="299"/>
-    </row>
-    <row r="411" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E411" s="299"/>
-    </row>
-    <row r="412" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E412" s="299"/>
-    </row>
-    <row r="413" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E413" s="299"/>
-    </row>
-    <row r="414" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E414" s="299"/>
-    </row>
-    <row r="415" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E415" s="299"/>
-    </row>
-    <row r="416" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E416" s="299"/>
-    </row>
-    <row r="417" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E417" s="299"/>
-    </row>
-    <row r="418" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E418" s="299"/>
-    </row>
-    <row r="419" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E419" s="299"/>
-    </row>
-    <row r="420" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E420" s="299"/>
-    </row>
-    <row r="421" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E421" s="299"/>
-    </row>
-    <row r="422" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E422" s="299"/>
-    </row>
-    <row r="423" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E423" s="299"/>
-    </row>
-    <row r="424" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E424" s="299"/>
-    </row>
-    <row r="425" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E425" s="299"/>
-    </row>
-    <row r="426" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E426" s="299"/>
-    </row>
-    <row r="427" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E427" s="299"/>
-    </row>
-    <row r="428" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E428" s="299"/>
-    </row>
-    <row r="429" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E429" s="299"/>
-    </row>
-    <row r="430" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E430" s="299"/>
-    </row>
-    <row r="431" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E431" s="299"/>
-    </row>
-    <row r="432" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E432" s="299"/>
-    </row>
-    <row r="433" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E433" s="299"/>
-    </row>
-    <row r="434" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E434" s="299"/>
-    </row>
-    <row r="435" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E435" s="299"/>
-    </row>
-    <row r="436" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E436" s="299"/>
-    </row>
-    <row r="437" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E437" s="299"/>
-    </row>
-    <row r="438" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E438" s="299"/>
-    </row>
-    <row r="439" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E439" s="299"/>
-    </row>
-    <row r="440" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E440" s="299"/>
-    </row>
-    <row r="441" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E441" s="299"/>
-    </row>
-    <row r="442" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E442" s="299"/>
-    </row>
-    <row r="443" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E443" s="299"/>
-    </row>
-    <row r="444" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E444" s="299"/>
-    </row>
-    <row r="445" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E445" s="299"/>
-    </row>
-    <row r="446" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E446" s="299"/>
-    </row>
-    <row r="447" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E447" s="299"/>
-    </row>
-    <row r="448" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E448" s="299"/>
-    </row>
-    <row r="449" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E449" s="299"/>
-    </row>
-    <row r="450" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E450" s="299"/>
-    </row>
-    <row r="451" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E451" s="299"/>
-    </row>
-    <row r="452" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E452" s="299"/>
-    </row>
-    <row r="453" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E453" s="299"/>
-    </row>
-    <row r="454" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E454" s="299"/>
-    </row>
-    <row r="455" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E455" s="299"/>
-    </row>
-    <row r="456" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E456" s="299"/>
-    </row>
-    <row r="457" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E457" s="299"/>
-    </row>
-    <row r="458" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E458" s="299"/>
-    </row>
-    <row r="459" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E459" s="299"/>
-    </row>
-    <row r="460" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E460" s="299"/>
-    </row>
-    <row r="461" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E461" s="299"/>
-    </row>
-    <row r="462" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E462" s="299"/>
-    </row>
-    <row r="463" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E463" s="299"/>
-    </row>
-    <row r="464" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E464" s="299"/>
-    </row>
-    <row r="465" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E465" s="299"/>
-    </row>
-    <row r="466" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E466" s="299"/>
-    </row>
-    <row r="467" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E467" s="299"/>
-    </row>
-    <row r="468" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E468" s="299"/>
-    </row>
-    <row r="469" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E469" s="299"/>
-    </row>
-    <row r="470" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E470" s="299"/>
-    </row>
-    <row r="471" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E471" s="299"/>
-    </row>
-    <row r="472" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E472" s="299"/>
-    </row>
-    <row r="473" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E473" s="299"/>
-    </row>
-    <row r="474" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E474" s="299"/>
-    </row>
-    <row r="475" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E475" s="299"/>
-    </row>
-    <row r="476" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E476" s="299"/>
-    </row>
-    <row r="477" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E477" s="299"/>
-    </row>
-    <row r="478" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E478" s="299"/>
-    </row>
-    <row r="479" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E479" s="299"/>
-    </row>
-    <row r="480" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E480" s="299"/>
-    </row>
-    <row r="481" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E481" s="299"/>
-    </row>
-    <row r="482" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E482" s="299"/>
-    </row>
-    <row r="483" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E483" s="299"/>
-    </row>
-    <row r="484" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E484" s="299"/>
-    </row>
-    <row r="485" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E485" s="299"/>
-    </row>
-    <row r="486" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E486" s="299"/>
-    </row>
-    <row r="487" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E487" s="299"/>
-    </row>
-    <row r="488" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E488" s="299"/>
-    </row>
-    <row r="489" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E489" s="299"/>
-    </row>
-    <row r="490" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E490" s="299"/>
-    </row>
-    <row r="491" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E491" s="299"/>
-    </row>
-    <row r="492" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E492" s="299"/>
-    </row>
-    <row r="493" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E493" s="299"/>
-    </row>
-    <row r="494" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E494" s="299"/>
-    </row>
-    <row r="495" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E495" s="299"/>
-    </row>
-    <row r="496" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E496" s="299"/>
-    </row>
-    <row r="497" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E497" s="299"/>
-    </row>
-    <row r="498" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E498" s="299"/>
-    </row>
-    <row r="499" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E499" s="299"/>
-    </row>
-    <row r="500" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E500" s="299"/>
-    </row>
-    <row r="501" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E501" s="299"/>
-    </row>
-    <row r="502" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E502" s="299"/>
-    </row>
-    <row r="503" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E503" s="299"/>
-    </row>
-    <row r="504" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E504" s="299"/>
-    </row>
-    <row r="505" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E505" s="299"/>
-    </row>
-    <row r="506" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E506" s="299"/>
-    </row>
-    <row r="507" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E507" s="299"/>
-    </row>
-    <row r="508" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E508" s="299"/>
-    </row>
-    <row r="509" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E509" s="299"/>
-    </row>
-    <row r="510" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E510" s="299"/>
-    </row>
-    <row r="511" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E511" s="299"/>
-    </row>
-    <row r="512" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E512" s="299"/>
-    </row>
-    <row r="513" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E513" s="299"/>
-    </row>
-    <row r="514" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E514" s="299"/>
-    </row>
-    <row r="515" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E515" s="299"/>
-    </row>
-    <row r="516" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E516" s="299"/>
-    </row>
-    <row r="517" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E517" s="299"/>
-    </row>
-    <row r="518" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E518" s="299"/>
-    </row>
-    <row r="519" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E519" s="299"/>
-    </row>
-    <row r="520" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E520" s="299"/>
-    </row>
-    <row r="521" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E521" s="299"/>
-    </row>
-    <row r="522" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E522" s="299"/>
-    </row>
-    <row r="523" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E523" s="299"/>
-    </row>
-    <row r="524" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E524" s="299"/>
-    </row>
-    <row r="525" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E525" s="299"/>
-    </row>
-    <row r="526" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E526" s="299"/>
-    </row>
-    <row r="527" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E527" s="299"/>
-    </row>
-    <row r="528" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E528" s="299"/>
-    </row>
-    <row r="529" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E529" s="299"/>
-    </row>
-    <row r="530" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E530" s="299"/>
-    </row>
-    <row r="531" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E531" s="299"/>
-    </row>
-    <row r="532" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E532" s="299"/>
-    </row>
-    <row r="533" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E533" s="299"/>
-    </row>
-    <row r="534" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E534" s="299"/>
-    </row>
-    <row r="535" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E535" s="299"/>
-    </row>
-    <row r="536" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E536" s="299"/>
-    </row>
-    <row r="537" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E537" s="299"/>
-    </row>
-    <row r="538" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E538" s="299"/>
-    </row>
-    <row r="539" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E539" s="299"/>
-    </row>
-    <row r="540" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E540" s="299"/>
-    </row>
-    <row r="541" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E541" s="299"/>
-    </row>
-    <row r="542" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E542" s="299"/>
-    </row>
-    <row r="543" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E543" s="299"/>
-    </row>
-    <row r="544" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E544" s="299"/>
-    </row>
-    <row r="545" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E545" s="299"/>
-    </row>
-    <row r="546" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E546" s="299"/>
-    </row>
-    <row r="547" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E547" s="299"/>
-    </row>
-    <row r="548" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E548" s="299"/>
-    </row>
-    <row r="549" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E549" s="299"/>
-    </row>
-    <row r="550" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E550" s="299"/>
-    </row>
-    <row r="551" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E551" s="299"/>
-    </row>
-    <row r="552" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E552" s="299"/>
-    </row>
-    <row r="553" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E553" s="299"/>
-    </row>
-    <row r="554" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E554" s="299"/>
-    </row>
-    <row r="555" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E555" s="299"/>
-    </row>
-    <row r="556" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E556" s="299"/>
-    </row>
-    <row r="557" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E557" s="299"/>
-    </row>
-    <row r="558" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E558" s="299"/>
-    </row>
-    <row r="559" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E559" s="299"/>
-    </row>
-    <row r="560" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E560" s="299"/>
-    </row>
-    <row r="561" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E561" s="299"/>
-    </row>
-    <row r="562" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E562" s="299"/>
-    </row>
-    <row r="563" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E563" s="299"/>
-    </row>
-    <row r="564" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E564" s="299"/>
-    </row>
-    <row r="565" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E565" s="299"/>
-    </row>
-    <row r="566" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E566" s="299"/>
-    </row>
-    <row r="567" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E567" s="299"/>
-    </row>
-    <row r="568" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E568" s="299"/>
-    </row>
-    <row r="569" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E569" s="299"/>
-    </row>
-    <row r="570" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E570" s="299"/>
-    </row>
-    <row r="571" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E571" s="299"/>
-    </row>
-    <row r="572" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E572" s="299"/>
-    </row>
-    <row r="573" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E573" s="299"/>
-    </row>
-    <row r="574" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E574" s="299"/>
-    </row>
-    <row r="575" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E575" s="299"/>
-    </row>
-    <row r="576" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E576" s="299"/>
-    </row>
-    <row r="577" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E577" s="299"/>
-    </row>
-    <row r="578" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E578" s="299"/>
-    </row>
-    <row r="579" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E579" s="299"/>
-    </row>
-    <row r="580" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E580" s="299"/>
-    </row>
-    <row r="581" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E581" s="299"/>
-    </row>
-    <row r="582" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E582" s="299"/>
-    </row>
-    <row r="583" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E583" s="299"/>
-    </row>
-    <row r="584" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E584" s="299"/>
-    </row>
-    <row r="585" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E585" s="299"/>
-    </row>
-    <row r="586" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E586" s="299"/>
-    </row>
-    <row r="587" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E587" s="299"/>
-    </row>
-    <row r="588" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E588" s="299"/>
-    </row>
-    <row r="589" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E589" s="299"/>
-    </row>
-    <row r="590" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E590" s="299"/>
-    </row>
-    <row r="591" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E591" s="299"/>
-    </row>
-    <row r="592" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E592" s="299"/>
-    </row>
-    <row r="593" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E593" s="299"/>
-    </row>
-    <row r="594" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E594" s="299"/>
-    </row>
-    <row r="595" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E595" s="299"/>
-    </row>
-    <row r="596" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E596" s="299"/>
-    </row>
-    <row r="597" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E597" s="299"/>
-    </row>
-    <row r="598" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E598" s="299"/>
-    </row>
-    <row r="599" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E599" s="299"/>
-    </row>
-    <row r="600" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E600" s="299"/>
-    </row>
-    <row r="601" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E601" s="299"/>
-    </row>
-    <row r="602" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E602" s="299"/>
-    </row>
-    <row r="603" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E603" s="299"/>
-    </row>
-    <row r="604" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E604" s="299"/>
-    </row>
-    <row r="605" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E605" s="299"/>
-    </row>
-    <row r="606" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E606" s="299"/>
-    </row>
-    <row r="607" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E607" s="299"/>
-    </row>
-    <row r="608" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E608" s="299"/>
-    </row>
-    <row r="609" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E609" s="299"/>
-    </row>
-    <row r="610" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E610" s="299"/>
-    </row>
-    <row r="611" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E611" s="299"/>
-    </row>
-    <row r="612" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E612" s="299"/>
-    </row>
-    <row r="613" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E613" s="299"/>
-    </row>
-    <row r="614" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E614" s="299"/>
-    </row>
-    <row r="615" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E615" s="299"/>
-    </row>
-    <row r="616" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E616" s="299"/>
-    </row>
-    <row r="617" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E617" s="299"/>
-    </row>
-    <row r="618" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E618" s="299"/>
-    </row>
-    <row r="619" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E619" s="299"/>
-    </row>
-    <row r="620" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E620" s="299"/>
-    </row>
-    <row r="621" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E621" s="299"/>
-    </row>
-    <row r="622" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E622" s="299"/>
-    </row>
-    <row r="623" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E623" s="299"/>
-    </row>
-    <row r="624" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E624" s="299"/>
-    </row>
-    <row r="625" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E625" s="299"/>
-    </row>
-    <row r="626" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E626" s="299"/>
-    </row>
-    <row r="627" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E627" s="299"/>
-    </row>
-    <row r="628" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E628" s="299"/>
-    </row>
-    <row r="629" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E629" s="299"/>
-    </row>
-    <row r="630" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E630" s="299"/>
-    </row>
-    <row r="631" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E631" s="299"/>
-    </row>
-    <row r="632" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E632" s="299"/>
-    </row>
-    <row r="633" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E633" s="299"/>
-    </row>
-    <row r="634" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E634" s="299"/>
-    </row>
-    <row r="635" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E635" s="299"/>
-    </row>
-    <row r="636" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E636" s="299"/>
-    </row>
-    <row r="637" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E637" s="299"/>
-    </row>
-    <row r="638" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E638" s="299"/>
-    </row>
-    <row r="639" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E639" s="299"/>
-    </row>
-    <row r="640" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E640" s="299"/>
-    </row>
-    <row r="641" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E641" s="299"/>
-    </row>
-    <row r="642" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E642" s="299"/>
-    </row>
-    <row r="643" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E643" s="299"/>
-    </row>
-    <row r="644" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E644" s="299"/>
-    </row>
-    <row r="645" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E645" s="299"/>
-    </row>
-    <row r="646" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E646" s="299"/>
-    </row>
-    <row r="647" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E647" s="299"/>
-    </row>
-    <row r="648" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E648" s="299"/>
-    </row>
-    <row r="649" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E649" s="299"/>
-    </row>
-    <row r="650" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E650" s="299"/>
-    </row>
-    <row r="651" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E651" s="299"/>
-    </row>
-    <row r="652" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E652" s="299"/>
-    </row>
-    <row r="653" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E653" s="299"/>
-    </row>
-    <row r="654" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E654" s="299"/>
-    </row>
-    <row r="655" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E655" s="299"/>
-    </row>
-    <row r="656" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E656" s="299"/>
-    </row>
-    <row r="657" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E657" s="299"/>
-    </row>
-    <row r="658" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E658" s="299"/>
-    </row>
-    <row r="659" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E659" s="299"/>
-    </row>
-    <row r="660" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E660" s="299"/>
-    </row>
-    <row r="661" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E661" s="299"/>
-    </row>
-    <row r="662" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E662" s="299"/>
-    </row>
-    <row r="663" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E663" s="299"/>
-    </row>
-    <row r="664" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E664" s="299"/>
-    </row>
-    <row r="665" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E665" s="299"/>
-    </row>
-    <row r="666" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E666" s="299"/>
-    </row>
-    <row r="667" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E667" s="299"/>
-    </row>
-    <row r="668" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E668" s="299"/>
-    </row>
-    <row r="669" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E669" s="299"/>
-    </row>
-    <row r="670" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E670" s="299"/>
-    </row>
-    <row r="671" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E671" s="299"/>
-    </row>
-    <row r="672" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E672" s="299"/>
-    </row>
-    <row r="673" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E673" s="299"/>
-    </row>
-    <row r="674" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E674" s="299"/>
-    </row>
-    <row r="675" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E675" s="299"/>
-    </row>
-    <row r="676" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E676" s="299"/>
-    </row>
-    <row r="677" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E677" s="299"/>
-    </row>
-    <row r="678" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E678" s="299"/>
-    </row>
-    <row r="679" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E679" s="299"/>
-    </row>
-    <row r="680" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E680" s="299"/>
-    </row>
-    <row r="681" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E681" s="299"/>
-    </row>
-    <row r="682" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E682" s="299"/>
-    </row>
-    <row r="683" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E683" s="299"/>
-    </row>
-    <row r="684" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E684" s="299"/>
-    </row>
-    <row r="685" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E685" s="299"/>
-    </row>
-    <row r="686" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E686" s="299"/>
-    </row>
-    <row r="687" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E687" s="299"/>
-    </row>
-    <row r="688" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E688" s="299"/>
-    </row>
-    <row r="689" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E689" s="299"/>
-    </row>
-    <row r="690" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E690" s="299"/>
-    </row>
-    <row r="691" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E691" s="299"/>
-    </row>
-    <row r="692" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E692" s="299"/>
-    </row>
-    <row r="693" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E693" s="299"/>
-    </row>
-    <row r="694" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E694" s="299"/>
-    </row>
-    <row r="695" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E695" s="299"/>
-    </row>
-    <row r="696" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E696" s="299"/>
-    </row>
-    <row r="697" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E697" s="299"/>
-    </row>
-    <row r="698" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E698" s="299"/>
-    </row>
-    <row r="699" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E699" s="299"/>
-    </row>
-    <row r="700" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E700" s="299"/>
-    </row>
-    <row r="701" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E701" s="299"/>
-    </row>
-    <row r="702" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E702" s="299"/>
-    </row>
-    <row r="703" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E703" s="299"/>
-    </row>
-    <row r="704" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E704" s="299"/>
-    </row>
-    <row r="705" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E705" s="299"/>
-    </row>
-    <row r="706" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E706" s="299"/>
-    </row>
-    <row r="707" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E707" s="299"/>
-    </row>
-    <row r="708" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E708" s="299"/>
-    </row>
-    <row r="709" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E709" s="299"/>
-    </row>
-    <row r="710" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E710" s="299"/>
-    </row>
-    <row r="711" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E711" s="299"/>
-    </row>
-    <row r="712" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E712" s="299"/>
-    </row>
-    <row r="713" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E713" s="299"/>
-    </row>
-    <row r="714" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E714" s="299"/>
-    </row>
-    <row r="715" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E715" s="299"/>
-    </row>
-    <row r="716" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E716" s="299"/>
-    </row>
-    <row r="717" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E717" s="299"/>
-    </row>
-    <row r="718" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E718" s="299"/>
-    </row>
-    <row r="719" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E719" s="299"/>
-    </row>
-    <row r="720" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E720" s="299"/>
-    </row>
-    <row r="721" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E721" s="299"/>
-    </row>
-    <row r="722" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E722" s="299"/>
-    </row>
-    <row r="723" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E723" s="299"/>
-    </row>
-    <row r="724" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E724" s="299"/>
-    </row>
-    <row r="725" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E725" s="299"/>
-    </row>
-    <row r="726" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E726" s="299"/>
-    </row>
-    <row r="727" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E727" s="299"/>
-    </row>
-    <row r="728" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E728" s="299"/>
-    </row>
-    <row r="729" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E729" s="299"/>
-    </row>
-    <row r="730" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E730" s="299"/>
-    </row>
-    <row r="731" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E731" s="299"/>
-    </row>
-    <row r="732" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E732" s="299"/>
-    </row>
-    <row r="733" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E733" s="299"/>
-    </row>
-    <row r="734" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E734" s="299"/>
-    </row>
-    <row r="735" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E735" s="299"/>
-    </row>
-    <row r="736" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E736" s="299"/>
-    </row>
-    <row r="737" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E737" s="299"/>
-    </row>
-    <row r="738" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E738" s="299"/>
-    </row>
-    <row r="739" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E739" s="299"/>
-    </row>
-    <row r="740" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E740" s="299"/>
-    </row>
-    <row r="741" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E741" s="299"/>
-    </row>
-    <row r="742" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E742" s="299"/>
-    </row>
-    <row r="743" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E743" s="299"/>
-    </row>
-    <row r="744" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E744" s="299"/>
-    </row>
-    <row r="745" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E745" s="299"/>
-    </row>
-    <row r="746" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E746" s="299"/>
-    </row>
-    <row r="747" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E747" s="299"/>
-    </row>
-    <row r="748" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E748" s="299"/>
-    </row>
-    <row r="749" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E749" s="299"/>
-    </row>
-    <row r="750" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E750" s="299"/>
-    </row>
-    <row r="751" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E751" s="299"/>
-    </row>
-    <row r="752" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E752" s="299"/>
-    </row>
-    <row r="753" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E753" s="299"/>
-    </row>
-    <row r="754" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E754" s="299"/>
-    </row>
-    <row r="755" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E755" s="299"/>
-    </row>
-    <row r="756" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E756" s="299"/>
-    </row>
-    <row r="757" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E757" s="299"/>
-    </row>
-    <row r="758" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E758" s="299"/>
-    </row>
-    <row r="759" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E759" s="299"/>
-    </row>
-    <row r="760" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E760" s="299"/>
-    </row>
-    <row r="761" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E761" s="299"/>
-    </row>
-    <row r="762" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E762" s="299"/>
-    </row>
-    <row r="763" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E763" s="299"/>
-    </row>
-    <row r="764" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E764" s="299"/>
-    </row>
-    <row r="765" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E765" s="299"/>
-    </row>
-    <row r="766" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E766" s="299"/>
-    </row>
-    <row r="767" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E767" s="299"/>
-    </row>
-    <row r="768" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E768" s="299"/>
-    </row>
-    <row r="769" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E769" s="299"/>
-    </row>
-    <row r="770" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E770" s="299"/>
-    </row>
-    <row r="771" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E771" s="299"/>
-    </row>
-    <row r="772" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E772" s="299"/>
-    </row>
-    <row r="773" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E773" s="299"/>
-    </row>
-    <row r="774" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E774" s="299"/>
-    </row>
-    <row r="775" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E775" s="299"/>
-    </row>
-    <row r="776" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E776" s="299"/>
-    </row>
-    <row r="777" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E777" s="299"/>
-    </row>
-    <row r="778" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E778" s="299"/>
-    </row>
-    <row r="779" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E779" s="299"/>
-    </row>
-    <row r="780" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E780" s="299"/>
-    </row>
-    <row r="781" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E781" s="299"/>
-    </row>
-    <row r="782" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E782" s="299"/>
-    </row>
-    <row r="783" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E783" s="299"/>
-    </row>
-    <row r="784" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E784" s="299"/>
-    </row>
-    <row r="785" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E785" s="299"/>
-    </row>
-    <row r="786" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E786" s="299"/>
-    </row>
-    <row r="787" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E787" s="299"/>
-    </row>
-    <row r="788" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E788" s="299"/>
-    </row>
-    <row r="789" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E789" s="299"/>
-    </row>
-    <row r="790" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E790" s="299"/>
-    </row>
-    <row r="791" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E791" s="299"/>
-    </row>
-    <row r="792" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E792" s="299"/>
-    </row>
-    <row r="793" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E793" s="299"/>
-    </row>
-    <row r="794" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E794" s="299"/>
-    </row>
-    <row r="795" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E795" s="299"/>
-    </row>
-    <row r="796" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E796" s="299"/>
-    </row>
-    <row r="797" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E797" s="299"/>
-    </row>
-    <row r="798" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E798" s="299"/>
-    </row>
-    <row r="799" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E799" s="299"/>
-    </row>
-    <row r="800" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E800" s="299"/>
-    </row>
-    <row r="801" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E801" s="299"/>
-    </row>
-    <row r="802" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E802" s="299"/>
-    </row>
-    <row r="803" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E803" s="299"/>
-    </row>
-    <row r="804" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E804" s="299"/>
-    </row>
-    <row r="805" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E805" s="299"/>
-    </row>
-    <row r="806" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E806" s="299"/>
-    </row>
-    <row r="807" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E807" s="299"/>
-    </row>
-    <row r="808" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E808" s="299"/>
-    </row>
-    <row r="809" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E809" s="299"/>
-    </row>
-    <row r="810" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E810" s="299"/>
-    </row>
-    <row r="811" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E811" s="299"/>
-    </row>
-    <row r="812" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E812" s="299"/>
-    </row>
-    <row r="813" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E813" s="299"/>
-    </row>
-    <row r="814" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E814" s="299"/>
-    </row>
-    <row r="815" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E815" s="299"/>
-    </row>
-    <row r="816" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E816" s="299"/>
-    </row>
-    <row r="817" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E817" s="299"/>
-    </row>
-    <row r="818" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E818" s="299"/>
-    </row>
-    <row r="819" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E819" s="299"/>
-    </row>
-    <row r="820" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E820" s="299"/>
-    </row>
-    <row r="821" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E821" s="299"/>
-    </row>
-    <row r="822" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E822" s="299"/>
-    </row>
-    <row r="823" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E823" s="299"/>
-    </row>
-    <row r="824" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E824" s="299"/>
-    </row>
-    <row r="825" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E825" s="299"/>
-    </row>
-    <row r="826" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E826" s="299"/>
-    </row>
-    <row r="827" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E827" s="299"/>
-    </row>
-    <row r="828" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E828" s="299"/>
-    </row>
-    <row r="829" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E829" s="299"/>
-    </row>
-    <row r="830" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E830" s="299"/>
-    </row>
-    <row r="831" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E831" s="299"/>
-    </row>
-    <row r="832" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E832" s="299"/>
-    </row>
-    <row r="833" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E833" s="299"/>
-    </row>
-    <row r="834" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E834" s="299"/>
-    </row>
-    <row r="835" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E835" s="299"/>
-    </row>
-    <row r="836" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E836" s="299"/>
-    </row>
-    <row r="837" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E837" s="299"/>
-    </row>
-    <row r="838" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E838" s="299"/>
-    </row>
-    <row r="839" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E839" s="299"/>
-    </row>
-    <row r="840" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E840" s="299"/>
-    </row>
-    <row r="841" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E841" s="299"/>
-    </row>
-    <row r="842" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E842" s="299"/>
-    </row>
-    <row r="843" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E843" s="299"/>
-    </row>
-    <row r="844" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E844" s="299"/>
-    </row>
-    <row r="845" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E845" s="299"/>
-    </row>
-    <row r="846" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E846" s="299"/>
-    </row>
-    <row r="847" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E847" s="299"/>
-    </row>
-    <row r="848" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E848" s="299"/>
-    </row>
-    <row r="849" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E849" s="299"/>
-    </row>
-    <row r="850" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E850" s="299"/>
-    </row>
-    <row r="851" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E851" s="299"/>
-    </row>
-    <row r="852" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E852" s="299"/>
-    </row>
-    <row r="853" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E853" s="299"/>
-    </row>
-    <row r="854" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E854" s="299"/>
-    </row>
-    <row r="855" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E855" s="299"/>
-    </row>
-    <row r="856" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E856" s="299"/>
-    </row>
-    <row r="857" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E857" s="299"/>
-    </row>
-    <row r="858" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E858" s="299"/>
-    </row>
-    <row r="859" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E859" s="299"/>
-    </row>
-    <row r="860" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E860" s="299"/>
-    </row>
-    <row r="861" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E861" s="299"/>
-    </row>
-    <row r="862" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E862" s="299"/>
-    </row>
-    <row r="863" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E863" s="299"/>
-    </row>
-    <row r="864" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E864" s="299"/>
-    </row>
-    <row r="865" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E865" s="299"/>
-    </row>
-    <row r="866" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E866" s="299"/>
-    </row>
-    <row r="867" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E867" s="299"/>
-    </row>
-    <row r="868" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E868" s="299"/>
-    </row>
-    <row r="869" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E869" s="299"/>
-    </row>
-    <row r="870" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E870" s="299"/>
-    </row>
-    <row r="871" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E871" s="299"/>
-    </row>
-    <row r="872" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E872" s="299"/>
-    </row>
-    <row r="873" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E873" s="299"/>
-    </row>
-    <row r="874" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E874" s="299"/>
-    </row>
-    <row r="875" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E875" s="299"/>
-    </row>
-    <row r="876" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E876" s="299"/>
-    </row>
-    <row r="877" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E877" s="299"/>
-    </row>
-    <row r="878" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E878" s="299"/>
-    </row>
-    <row r="879" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E879" s="299"/>
-    </row>
-    <row r="880" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E880" s="299"/>
-    </row>
-    <row r="881" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E881" s="299"/>
-    </row>
-    <row r="882" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E882" s="299"/>
-    </row>
-    <row r="883" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E883" s="299"/>
-    </row>
-    <row r="884" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E884" s="299"/>
-    </row>
-    <row r="885" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E885" s="299"/>
-    </row>
-    <row r="886" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E886" s="299"/>
-    </row>
-    <row r="887" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E887" s="299"/>
-    </row>
-    <row r="888" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E888" s="299"/>
-    </row>
-    <row r="889" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E889" s="299"/>
-    </row>
-    <row r="890" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E890" s="299"/>
-    </row>
-    <row r="891" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E891" s="299"/>
-    </row>
-    <row r="892" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E892" s="299"/>
-    </row>
-    <row r="893" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E893" s="299"/>
-    </row>
-    <row r="894" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E894" s="299"/>
-    </row>
-    <row r="895" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E895" s="299"/>
-    </row>
-    <row r="896" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E896" s="299"/>
-    </row>
-    <row r="897" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E897" s="299"/>
-    </row>
-    <row r="898" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E898" s="299"/>
-    </row>
-    <row r="899" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E899" s="299"/>
-    </row>
-    <row r="900" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E900" s="299"/>
-    </row>
-    <row r="901" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E901" s="299"/>
-    </row>
-    <row r="902" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E902" s="299"/>
-    </row>
-    <row r="903" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E903" s="299"/>
-    </row>
-    <row r="904" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E904" s="299"/>
-    </row>
-    <row r="905" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E905" s="299"/>
-    </row>
-    <row r="906" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E906" s="299"/>
-    </row>
-    <row r="907" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E907" s="299"/>
-    </row>
-    <row r="908" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E908" s="299"/>
-    </row>
-    <row r="909" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E909" s="299"/>
-    </row>
-    <row r="910" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E910" s="299"/>
-    </row>
-    <row r="911" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E911" s="299"/>
-    </row>
-    <row r="912" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E912" s="299"/>
-    </row>
-    <row r="913" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E913" s="299"/>
-    </row>
-    <row r="914" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E914" s="299"/>
-    </row>
-    <row r="915" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E915" s="299"/>
-    </row>
-    <row r="916" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E916" s="299"/>
-    </row>
-    <row r="917" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E917" s="299"/>
-    </row>
-    <row r="918" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E918" s="299"/>
-    </row>
-    <row r="919" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E919" s="299"/>
-    </row>
-    <row r="920" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E920" s="299"/>
-    </row>
-    <row r="921" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E921" s="299"/>
-    </row>
-    <row r="922" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E922" s="299"/>
-    </row>
-    <row r="923" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E923" s="299"/>
-    </row>
-    <row r="924" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E924" s="299"/>
-    </row>
-    <row r="925" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E925" s="299"/>
-    </row>
-    <row r="926" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E926" s="299"/>
-    </row>
-    <row r="927" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E927" s="299"/>
-    </row>
-    <row r="928" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E928" s="299"/>
-    </row>
-    <row r="929" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E929" s="299"/>
-    </row>
-    <row r="930" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E930" s="299"/>
-    </row>
-    <row r="931" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E931" s="299"/>
-    </row>
-    <row r="932" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E932" s="299"/>
-    </row>
-    <row r="933" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E933" s="299"/>
-    </row>
-    <row r="934" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E934" s="299"/>
-    </row>
-    <row r="935" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E935" s="299"/>
-    </row>
-    <row r="936" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E936" s="299"/>
-    </row>
-    <row r="937" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E937" s="299"/>
-    </row>
-    <row r="938" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E938" s="299"/>
-    </row>
-    <row r="939" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E939" s="299"/>
-    </row>
-    <row r="940" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E940" s="299"/>
-    </row>
-    <row r="941" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E941" s="299"/>
-    </row>
-    <row r="942" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E942" s="299"/>
-    </row>
-    <row r="943" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E943" s="299"/>
-    </row>
-    <row r="944" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E944" s="299"/>
-    </row>
-    <row r="945" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E945" s="299"/>
-    </row>
-    <row r="946" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E946" s="299"/>
-    </row>
-    <row r="947" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E947" s="299"/>
-    </row>
-    <row r="948" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E948" s="299"/>
-    </row>
-    <row r="949" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E949" s="299"/>
-    </row>
-    <row r="950" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E950" s="299"/>
-    </row>
-    <row r="951" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E951" s="299"/>
-    </row>
-    <row r="952" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E952" s="299"/>
-    </row>
-    <row r="953" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E953" s="299"/>
-    </row>
-    <row r="954" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E954" s="299"/>
-    </row>
-    <row r="955" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E955" s="299"/>
-    </row>
-    <row r="956" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E956" s="299"/>
-    </row>
-    <row r="957" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E957" s="299"/>
-    </row>
-    <row r="958" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E958" s="299"/>
-    </row>
-    <row r="959" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E959" s="299"/>
-    </row>
-    <row r="960" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E960" s="299"/>
-    </row>
-    <row r="961" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E961" s="299"/>
-    </row>
-    <row r="962" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E962" s="299"/>
-    </row>
-    <row r="963" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E963" s="299"/>
-    </row>
-    <row r="964" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E964" s="299"/>
-    </row>
-    <row r="965" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E965" s="299"/>
-    </row>
-    <row r="966" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E966" s="299"/>
-    </row>
-    <row r="967" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E967" s="299"/>
-    </row>
-    <row r="968" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E968" s="299"/>
-    </row>
-    <row r="969" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E969" s="299"/>
-    </row>
-    <row r="970" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E970" s="299"/>
-    </row>
-    <row r="971" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E971" s="299"/>
-    </row>
-    <row r="972" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E972" s="299"/>
-    </row>
-    <row r="973" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E973" s="299"/>
-    </row>
-    <row r="974" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E974" s="299"/>
-    </row>
-    <row r="975" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E975" s="299"/>
-    </row>
-    <row r="976" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E976" s="299"/>
-    </row>
-    <row r="977" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E977" s="299"/>
-    </row>
-    <row r="978" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E978" s="299"/>
-    </row>
-    <row r="979" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E979" s="299"/>
-    </row>
-    <row r="980" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E980" s="299"/>
-    </row>
-    <row r="981" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E981" s="299"/>
-    </row>
-    <row r="982" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E982" s="299"/>
-    </row>
-    <row r="983" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E983" s="299"/>
-    </row>
-    <row r="984" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E984" s="299"/>
-    </row>
-    <row r="985" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E985" s="299"/>
-    </row>
-    <row r="986" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E986" s="299"/>
-    </row>
-    <row r="987" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E987" s="299"/>
-    </row>
-    <row r="988" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E988" s="299"/>
-    </row>
-    <row r="989" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E989" s="299"/>
-    </row>
-    <row r="990" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E990" s="299"/>
-    </row>
-    <row r="991" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E991" s="299"/>
-    </row>
-    <row r="992" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E992" s="299"/>
-    </row>
-    <row r="993" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E993" s="299"/>
-    </row>
-    <row r="994" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E994" s="299"/>
-    </row>
-    <row r="995" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E995" s="299"/>
-    </row>
-    <row r="996" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E996" s="299"/>
-    </row>
-    <row r="997" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E997" s="299"/>
-    </row>
-    <row r="998" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E998" s="299"/>
-    </row>
-    <row r="999" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E999" s="299"/>
-    </row>
-    <row r="1000" spans="5:5" ht="12.75" customHeight="1">
-      <c r="E1000" s="299"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
 </file>